--- a/ATP.xlsx
+++ b/ATP.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d76743393f26010/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{1C169263-2B07-4D59-B672-51A7F1DE0FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{801A5380-3877-4109-92BF-86D01B840124}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74730DC4-CA38-42EB-8C20-95972447F385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
+    <workbookView xWindow="1820" yWindow="2590" windowWidth="19200" windowHeight="11170" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,27 +39,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
   <si>
     <t>start_date_local</t>
   </si>
   <si>
-    <t>Swim</t>
+    <t>Rest</t>
   </si>
   <si>
-    <t>Bike</t>
+    <t>swim_load</t>
   </si>
   <si>
-    <t>Run</t>
+    <t>bike_load</t>
   </si>
   <si>
-    <t>Trailrun</t>
+    <t>swim_time</t>
   </si>
   <si>
-    <t>Period</t>
+    <t>bike_time</t>
   </si>
   <si>
-    <t>Rest</t>
+    <t>run_load</t>
+  </si>
+  <si>
+    <t>run_time</t>
+  </si>
+  <si>
+    <t>swim_distance</t>
+  </si>
+  <si>
+    <t>bike_distance</t>
+  </si>
+  <si>
+    <t>run_distance</t>
+  </si>
+  <si>
+    <t>period</t>
   </si>
   <si>
     <t>Base</t>
@@ -110,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -137,16 +156,634 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="ATP"/>
+      <sheetName val="ATP_Python"/>
+      <sheetName val="Race-calendar"/>
+      <sheetName val="Annual Training Plan"/>
+      <sheetName val="ReadMe"/>
+      <sheetName val="Activities"/>
+      <sheetName val="Wellness"/>
+      <sheetName val="iThlete HRV"/>
+      <sheetName val="Lookup"/>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="18">
+          <cell r="U18">
+            <v>0</v>
+          </cell>
+          <cell r="AC18">
+            <v>50</v>
+          </cell>
+          <cell r="AK18">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="U19">
+            <v>0</v>
+          </cell>
+          <cell r="AC19">
+            <v>150</v>
+          </cell>
+          <cell r="AK19">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="U20">
+            <v>0</v>
+          </cell>
+          <cell r="AC20">
+            <v>160</v>
+          </cell>
+          <cell r="AK20">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="U21">
+            <v>0</v>
+          </cell>
+          <cell r="AC21">
+            <v>170</v>
+          </cell>
+          <cell r="AK21">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="U22">
+            <v>0</v>
+          </cell>
+          <cell r="AC22">
+            <v>140</v>
+          </cell>
+          <cell r="AK22">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="U23">
+            <v>0</v>
+          </cell>
+          <cell r="AC23">
+            <v>200</v>
+          </cell>
+          <cell r="AK23">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="U24">
+            <v>0</v>
+          </cell>
+          <cell r="AC24">
+            <v>200</v>
+          </cell>
+          <cell r="AK24">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="U25">
+            <v>0</v>
+          </cell>
+          <cell r="AC25">
+            <v>160</v>
+          </cell>
+          <cell r="AK25">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="U26">
+            <v>0</v>
+          </cell>
+          <cell r="AC26">
+            <v>210</v>
+          </cell>
+          <cell r="AK26">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="U27">
+            <v>0</v>
+          </cell>
+          <cell r="AC27">
+            <v>200</v>
+          </cell>
+          <cell r="AK27">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="U28">
+            <v>0</v>
+          </cell>
+          <cell r="AC28">
+            <v>200</v>
+          </cell>
+          <cell r="AK28">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="U29">
+            <v>0</v>
+          </cell>
+          <cell r="AC29">
+            <v>200</v>
+          </cell>
+          <cell r="AK29">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="U30">
+            <v>0</v>
+          </cell>
+          <cell r="AC30">
+            <v>200</v>
+          </cell>
+          <cell r="AK30">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="U31">
+            <v>0</v>
+          </cell>
+          <cell r="AC31">
+            <v>200</v>
+          </cell>
+          <cell r="AK31">
+            <v>175</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="U32">
+            <v>0</v>
+          </cell>
+          <cell r="AC32">
+            <v>200</v>
+          </cell>
+          <cell r="AK32">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="U33">
+            <v>0</v>
+          </cell>
+          <cell r="AC33">
+            <v>200</v>
+          </cell>
+          <cell r="AK33">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="U34">
+            <v>0</v>
+          </cell>
+          <cell r="AC34">
+            <v>210</v>
+          </cell>
+          <cell r="AK34">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="U35">
+            <v>40</v>
+          </cell>
+          <cell r="AC35">
+            <v>210</v>
+          </cell>
+          <cell r="AK35">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="U36">
+            <v>40</v>
+          </cell>
+          <cell r="AC36">
+            <v>220</v>
+          </cell>
+          <cell r="AK36">
+            <v>220</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="U37">
+            <v>40</v>
+          </cell>
+          <cell r="AC37">
+            <v>200</v>
+          </cell>
+          <cell r="AK37">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="U38">
+            <v>55</v>
+          </cell>
+          <cell r="AC38">
+            <v>260</v>
+          </cell>
+          <cell r="AK38">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="U39">
+            <v>50</v>
+          </cell>
+          <cell r="AC39">
+            <v>200</v>
+          </cell>
+          <cell r="AK39">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="U40">
+            <v>40</v>
+          </cell>
+          <cell r="AC40">
+            <v>200</v>
+          </cell>
+          <cell r="AK40">
+            <v>180</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="U41">
+            <v>0</v>
+          </cell>
+          <cell r="AC41">
+            <v>200</v>
+          </cell>
+          <cell r="AK41">
+            <v>135</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="U42">
+            <v>0</v>
+          </cell>
+          <cell r="AC42">
+            <v>200</v>
+          </cell>
+          <cell r="AK42">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="U43">
+            <v>0</v>
+          </cell>
+          <cell r="AC43">
+            <v>200</v>
+          </cell>
+          <cell r="AK43">
+            <v>122</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="U44">
+            <v>0</v>
+          </cell>
+          <cell r="AC44">
+            <v>200</v>
+          </cell>
+          <cell r="AK44">
+            <v>115</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="U45">
+            <v>0</v>
+          </cell>
+          <cell r="AC45">
+            <v>200</v>
+          </cell>
+          <cell r="AK45">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="U46">
+            <v>0</v>
+          </cell>
+          <cell r="AC46">
+            <v>200</v>
+          </cell>
+          <cell r="AK46">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="U47">
+            <v>0</v>
+          </cell>
+          <cell r="AC47">
+            <v>50</v>
+          </cell>
+          <cell r="AK47">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="U48">
+            <v>0</v>
+          </cell>
+          <cell r="AC48">
+            <v>50</v>
+          </cell>
+          <cell r="AK48">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="U49">
+            <v>0</v>
+          </cell>
+          <cell r="AC49">
+            <v>50</v>
+          </cell>
+          <cell r="AK49">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="U50">
+            <v>0</v>
+          </cell>
+          <cell r="AC50">
+            <v>200</v>
+          </cell>
+          <cell r="AK50">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="U51">
+            <v>40</v>
+          </cell>
+          <cell r="AC51">
+            <v>200</v>
+          </cell>
+          <cell r="AK51">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="U52">
+            <v>50</v>
+          </cell>
+          <cell r="AC52">
+            <v>200</v>
+          </cell>
+          <cell r="AK52">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="U53">
+            <v>60</v>
+          </cell>
+          <cell r="AC53">
+            <v>250</v>
+          </cell>
+          <cell r="AK53">
+            <v>175</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="U54">
+            <v>40</v>
+          </cell>
+          <cell r="AC54">
+            <v>150</v>
+          </cell>
+          <cell r="AK54">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="U55">
+            <v>50</v>
+          </cell>
+          <cell r="AC55">
+            <v>200</v>
+          </cell>
+          <cell r="AK55">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="U56">
+            <v>0</v>
+          </cell>
+          <cell r="AC56">
+            <v>200</v>
+          </cell>
+          <cell r="AK56">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="U57">
+            <v>0</v>
+          </cell>
+          <cell r="AC57">
+            <v>200</v>
+          </cell>
+          <cell r="AK57">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="U58">
+            <v>0</v>
+          </cell>
+          <cell r="AC58">
+            <v>200</v>
+          </cell>
+          <cell r="AK58">
+            <v>110</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="U59">
+            <v>0</v>
+          </cell>
+          <cell r="AC59">
+            <v>200</v>
+          </cell>
+          <cell r="AK59">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="U60">
+            <v>0</v>
+          </cell>
+          <cell r="AC60">
+            <v>200</v>
+          </cell>
+          <cell r="AK60">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="U61">
+            <v>0</v>
+          </cell>
+          <cell r="AC61">
+            <v>200</v>
+          </cell>
+          <cell r="AK61">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="U62">
+            <v>0</v>
+          </cell>
+          <cell r="AC62">
+            <v>200</v>
+          </cell>
+          <cell r="AK62">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="U63">
+            <v>0</v>
+          </cell>
+          <cell r="AC63">
+            <v>200</v>
+          </cell>
+          <cell r="AK63">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="U64">
+            <v>0</v>
+          </cell>
+          <cell r="AC64">
+            <v>200</v>
+          </cell>
+          <cell r="AK64">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="U65">
+            <v>0</v>
+          </cell>
+          <cell r="AC65">
+            <v>200</v>
+          </cell>
+          <cell r="AK65">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="U66">
+            <v>0</v>
+          </cell>
+          <cell r="AC66">
+            <v>200</v>
+          </cell>
+          <cell r="AK66">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="U67">
+            <v>0</v>
+          </cell>
+          <cell r="AC67">
+            <v>200</v>
+          </cell>
+          <cell r="AK67">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="U68">
+            <v>0</v>
+          </cell>
+          <cell r="AC68">
+            <v>200</v>
+          </cell>
+          <cell r="AK68">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="U69">
+            <v>0</v>
+          </cell>
+          <cell r="AC69">
+            <v>200</v>
+          </cell>
+          <cell r="AK69">
+            <v>100</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}" name="Tabel4" displayName="Tabel4" ref="A1:F53" totalsRowShown="0">
-  <autoFilter ref="A1:F53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}" name="Tabel4" displayName="Tabel4" ref="A1:K53" totalsRowShown="0">
+  <autoFilter ref="A1:K53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00AC1D7C-F7EA-4AB3-A2C4-F4BCF2A305A7}" name="start_date_local" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9E15352F-434A-4EAC-BA00-F7D6AF3AF2FE}" name="Swim"/>
-    <tableColumn id="3" xr3:uid="{61A6DD26-4464-4D9A-AF2C-DDF6287530BB}" name="Bike"/>
-    <tableColumn id="4" xr3:uid="{C6968185-0C45-4EE5-B564-BF591DCC7E11}" name="Run"/>
-    <tableColumn id="6" xr3:uid="{87A33764-9AEF-4245-8B34-38F8521DBA65}" name="Trailrun"/>
-    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="Period" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9E15352F-434A-4EAC-BA00-F7D6AF3AF2FE}" name="swim_load">
+      <calculatedColumnFormula>[1]ATP!U18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{61A6DD26-4464-4D9A-AF2C-DDF6287530BB}" name="bike_load">
+      <calculatedColumnFormula>[1]ATP!AC18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C6968185-0C45-4EE5-B564-BF591DCC7E11}" name="run_load">
+      <calculatedColumnFormula>[1]ATP!AK18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{0974CF32-83F7-4688-8E0F-0C87F6D0AEA8}" name="swim_time"/>
+    <tableColumn id="8" xr3:uid="{F8D49066-8C3C-4E52-BBDB-81E3575EDB67}" name="bike_time"/>
+    <tableColumn id="7" xr3:uid="{58AFF2A7-F1A9-4872-B633-BB70278F98C0}" name="run_time"/>
+    <tableColumn id="12" xr3:uid="{D7559D9A-025E-4694-880D-3D67EF1798C6}" name="swim_distance"/>
+    <tableColumn id="11" xr3:uid="{072CC298-5682-4CE5-8227-32206C100A4B}" name="bike_distance"/>
+    <tableColumn id="10" xr3:uid="{78DF58AF-0354-4C65-8341-AFA6D16902D8}" name="run_distance"/>
+    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,34 +1106,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2EA41-FD23-436A-BE8E-FDD21FEF5240}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -504,889 +1146,1267 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45656</v>
       </c>
       <c r="B2">
+        <f>[1]ATP!U18</f>
         <v>0</v>
       </c>
       <c r="C2">
+        <f>[1]ATP!AC18</f>
         <v>50</v>
       </c>
       <c r="D2">
+        <f>[1]ATP!AK18</f>
         <v>50</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
+        <f>A2+7</f>
         <v>45663</v>
       </c>
       <c r="B3">
+        <f>[1]ATP!U19</f>
         <v>0</v>
       </c>
       <c r="C3">
+        <f>[1]ATP!AC19</f>
         <v>150</v>
       </c>
       <c r="D3">
+        <f>[1]ATP!AK19</f>
         <v>100</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
+        <f t="shared" ref="A4:A53" si="0">A3+7</f>
         <v>45670</v>
       </c>
       <c r="B4">
+        <f>[1]ATP!U20</f>
         <v>0</v>
       </c>
       <c r="C4">
+        <f>[1]ATP!AC20</f>
         <v>160</v>
       </c>
       <c r="D4">
+        <f>[1]ATP!AK20</f>
         <v>100</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
+        <f t="shared" si="0"/>
         <v>45677</v>
       </c>
       <c r="B5">
+        <f>[1]ATP!U21</f>
         <v>0</v>
       </c>
       <c r="C5">
+        <f>[1]ATP!AC21</f>
         <v>170</v>
       </c>
       <c r="D5">
+        <f>[1]ATP!AK21</f>
         <v>110</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
+        <f t="shared" si="0"/>
         <v>45684</v>
       </c>
       <c r="B6">
+        <f>[1]ATP!U22</f>
         <v>0</v>
       </c>
       <c r="C6">
+        <f>[1]ATP!AC22</f>
         <v>140</v>
       </c>
       <c r="D6">
+        <f>[1]ATP!AK22</f>
         <v>100</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
+        <f t="shared" si="0"/>
         <v>45691</v>
       </c>
       <c r="B7">
+        <f>[1]ATP!U23</f>
         <v>0</v>
       </c>
       <c r="C7">
+        <f>[1]ATP!AC23</f>
         <v>200</v>
       </c>
       <c r="D7">
+        <f>[1]ATP!AK23</f>
         <v>80</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
+        <f t="shared" si="0"/>
         <v>45698</v>
       </c>
       <c r="B8">
+        <f>[1]ATP!U24</f>
         <v>0</v>
       </c>
       <c r="C8">
+        <f>[1]ATP!AC24</f>
         <v>200</v>
       </c>
       <c r="D8">
+        <f>[1]ATP!AK24</f>
         <v>100</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
+        <f t="shared" si="0"/>
         <v>45705</v>
       </c>
       <c r="B9">
+        <f>[1]ATP!U25</f>
         <v>0</v>
       </c>
       <c r="C9">
+        <f>[1]ATP!AC25</f>
         <v>160</v>
       </c>
       <c r="D9">
+        <f>[1]ATP!AK25</f>
         <v>70</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
+        <f t="shared" si="0"/>
         <v>45712</v>
       </c>
       <c r="B10">
+        <f>[1]ATP!U26</f>
         <v>0</v>
       </c>
       <c r="C10">
+        <f>[1]ATP!AC26</f>
         <v>210</v>
       </c>
       <c r="D10">
+        <f>[1]ATP!AK26</f>
         <v>90</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
+        <f t="shared" si="0"/>
         <v>45719</v>
       </c>
       <c r="B11">
+        <f>[1]ATP!U27</f>
         <v>0</v>
       </c>
       <c r="C11">
+        <f>[1]ATP!AC27</f>
         <v>200</v>
       </c>
       <c r="D11">
+        <f>[1]ATP!AK27</f>
         <v>120</v>
       </c>
-      <c r="F11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
+        <f t="shared" si="0"/>
         <v>45726</v>
       </c>
       <c r="B12">
+        <f>[1]ATP!U28</f>
         <v>0</v>
       </c>
       <c r="C12">
+        <f>[1]ATP!AC28</f>
         <v>200</v>
       </c>
       <c r="D12">
+        <f>[1]ATP!AK28</f>
         <v>150</v>
       </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
+        <f t="shared" si="0"/>
         <v>45733</v>
       </c>
       <c r="B13">
+        <f>[1]ATP!U29</f>
         <v>0</v>
       </c>
       <c r="C13">
+        <f>[1]ATP!AC29</f>
         <v>200</v>
       </c>
       <c r="D13">
+        <f>[1]ATP!AK29</f>
         <v>60</v>
       </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
+        <f t="shared" si="0"/>
         <v>45740</v>
       </c>
       <c r="B14">
+        <f>[1]ATP!U30</f>
         <v>0</v>
       </c>
       <c r="C14">
+        <f>[1]ATP!AC30</f>
         <v>200</v>
       </c>
       <c r="D14">
+        <f>[1]ATP!AK30</f>
         <v>150</v>
       </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
+        <f t="shared" si="0"/>
         <v>45747</v>
       </c>
       <c r="B15">
+        <f>[1]ATP!U31</f>
         <v>0</v>
       </c>
       <c r="C15">
+        <f>[1]ATP!AC31</f>
         <v>200</v>
       </c>
       <c r="D15">
+        <f>[1]ATP!AK31</f>
         <v>175</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
+        <f t="shared" si="0"/>
         <v>45754</v>
       </c>
       <c r="B16">
+        <f>[1]ATP!U32</f>
         <v>0</v>
       </c>
       <c r="C16">
+        <f>[1]ATP!AC32</f>
         <v>200</v>
       </c>
       <c r="D16">
-        <v>200</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <f>[1]ATP!AK32</f>
+        <v>200</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
+        <f t="shared" si="0"/>
         <v>45761</v>
       </c>
       <c r="B17">
+        <f>[1]ATP!U33</f>
         <v>0</v>
       </c>
       <c r="C17">
+        <f>[1]ATP!AC33</f>
         <v>200</v>
       </c>
       <c r="D17">
+        <f>[1]ATP!AK33</f>
         <v>100</v>
       </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
+        <f t="shared" si="0"/>
         <v>45768</v>
       </c>
       <c r="B18">
+        <f>[1]ATP!U34</f>
         <v>0</v>
       </c>
       <c r="C18">
+        <f>[1]ATP!AC34</f>
         <v>210</v>
       </c>
       <c r="D18">
-        <v>200</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <f>[1]ATP!AK34</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
+        <f t="shared" si="0"/>
         <v>45775</v>
       </c>
       <c r="B19">
+        <f>[1]ATP!U35</f>
         <v>40</v>
       </c>
       <c r="C19">
+        <f>[1]ATP!AC35</f>
         <v>210</v>
       </c>
       <c r="D19">
-        <v>200</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <f>[1]ATP!AK35</f>
+        <v>200</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
+        <f t="shared" si="0"/>
         <v>45782</v>
       </c>
       <c r="B20">
+        <f>[1]ATP!U36</f>
         <v>40</v>
       </c>
       <c r="C20">
+        <f>[1]ATP!AC36</f>
         <v>220</v>
       </c>
       <c r="D20">
+        <f>[1]ATP!AK36</f>
         <v>220</v>
       </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
+        <f t="shared" si="0"/>
         <v>45789</v>
       </c>
       <c r="B21">
+        <f>[1]ATP!U37</f>
         <v>40</v>
       </c>
       <c r="C21">
+        <f>[1]ATP!AC37</f>
         <v>200</v>
       </c>
       <c r="D21">
+        <f>[1]ATP!AK37</f>
         <v>110</v>
       </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
+        <f t="shared" si="0"/>
         <v>45796</v>
       </c>
       <c r="B22">
+        <f>[1]ATP!U38</f>
         <v>55</v>
       </c>
       <c r="C22">
+        <f>[1]ATP!AC38</f>
         <v>260</v>
       </c>
       <c r="D22">
+        <f>[1]ATP!AK38</f>
         <v>180</v>
       </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
+        <f t="shared" si="0"/>
         <v>45803</v>
       </c>
       <c r="B23">
+        <f>[1]ATP!U39</f>
         <v>50</v>
       </c>
       <c r="C23">
+        <f>[1]ATP!AC39</f>
         <v>200</v>
       </c>
       <c r="D23">
+        <f>[1]ATP!AK39</f>
         <v>100</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
+        <f t="shared" si="0"/>
         <v>45810</v>
       </c>
       <c r="B24">
+        <f>[1]ATP!U40</f>
         <v>40</v>
       </c>
       <c r="C24">
+        <f>[1]ATP!AC40</f>
         <v>200</v>
       </c>
       <c r="D24">
+        <f>[1]ATP!AK40</f>
         <v>180</v>
       </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
+        <f t="shared" si="0"/>
         <v>45817</v>
       </c>
       <c r="B25">
+        <f>[1]ATP!U41</f>
         <v>0</v>
       </c>
       <c r="C25">
+        <f>[1]ATP!AC41</f>
         <v>200</v>
       </c>
       <c r="D25">
+        <f>[1]ATP!AK41</f>
         <v>135</v>
       </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
+        <f t="shared" si="0"/>
         <v>45824</v>
       </c>
       <c r="B26">
+        <f>[1]ATP!U42</f>
         <v>0</v>
       </c>
       <c r="C26">
+        <f>[1]ATP!AC42</f>
         <v>200</v>
       </c>
       <c r="D26">
+        <f>[1]ATP!AK42</f>
         <v>130</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
+        <f t="shared" si="0"/>
         <v>45831</v>
       </c>
       <c r="B27">
+        <f>[1]ATP!U43</f>
         <v>0</v>
       </c>
       <c r="C27">
+        <f>[1]ATP!AC43</f>
         <v>200</v>
       </c>
       <c r="D27">
+        <f>[1]ATP!AK43</f>
         <v>122</v>
       </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
+        <f t="shared" si="0"/>
         <v>45838</v>
       </c>
       <c r="B28">
+        <f>[1]ATP!U44</f>
         <v>0</v>
       </c>
       <c r="C28">
+        <f>[1]ATP!AC44</f>
         <v>200</v>
       </c>
       <c r="D28">
+        <f>[1]ATP!AK44</f>
         <v>115</v>
       </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
+        <f t="shared" si="0"/>
         <v>45845</v>
       </c>
       <c r="B29">
+        <f>[1]ATP!U45</f>
         <v>0</v>
       </c>
       <c r="C29">
+        <f>[1]ATP!AC45</f>
         <v>200</v>
       </c>
       <c r="D29">
+        <f>[1]ATP!AK45</f>
         <v>110</v>
       </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
+        <f t="shared" si="0"/>
         <v>45852</v>
       </c>
       <c r="B30">
+        <f>[1]ATP!U46</f>
         <v>0</v>
       </c>
       <c r="C30">
+        <f>[1]ATP!AC46</f>
         <v>200</v>
       </c>
       <c r="D30">
+        <f>[1]ATP!AK46</f>
         <v>100</v>
       </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
+        <f t="shared" si="0"/>
         <v>45859</v>
       </c>
       <c r="B31">
+        <f>[1]ATP!U47</f>
         <v>0</v>
       </c>
       <c r="C31">
+        <f>[1]ATP!AC47</f>
         <v>50</v>
       </c>
       <c r="D31">
+        <f>[1]ATP!AK47</f>
         <v>50</v>
       </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
+        <f t="shared" si="0"/>
         <v>45866</v>
       </c>
       <c r="B32">
+        <f>[1]ATP!U48</f>
         <v>0</v>
       </c>
       <c r="C32">
+        <f>[1]ATP!AC48</f>
         <v>50</v>
       </c>
       <c r="D32">
+        <f>[1]ATP!AK48</f>
         <v>50</v>
       </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
+        <f t="shared" si="0"/>
         <v>45873</v>
       </c>
       <c r="B33">
+        <f>[1]ATP!U49</f>
         <v>0</v>
       </c>
       <c r="C33">
+        <f>[1]ATP!AC49</f>
         <v>50</v>
       </c>
       <c r="D33">
+        <f>[1]ATP!AK49</f>
         <v>50</v>
       </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="K33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
+        <f t="shared" si="0"/>
         <v>45880</v>
       </c>
       <c r="B34">
+        <f>[1]ATP!U50</f>
         <v>0</v>
       </c>
       <c r="C34">
+        <f>[1]ATP!AC50</f>
         <v>200</v>
       </c>
       <c r="D34">
+        <f>[1]ATP!AK50</f>
         <v>100</v>
       </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="K34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
+        <f t="shared" si="0"/>
         <v>45887</v>
       </c>
       <c r="B35">
+        <f>[1]ATP!U51</f>
         <v>40</v>
       </c>
       <c r="C35">
+        <f>[1]ATP!AC51</f>
         <v>200</v>
       </c>
       <c r="D35">
+        <f>[1]ATP!AK51</f>
         <v>80</v>
       </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
+        <f t="shared" si="0"/>
         <v>45894</v>
       </c>
       <c r="B36">
+        <f>[1]ATP!U52</f>
         <v>50</v>
       </c>
       <c r="C36">
+        <f>[1]ATP!AC52</f>
         <v>200</v>
       </c>
       <c r="D36">
+        <f>[1]ATP!AK52</f>
         <v>100</v>
       </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
+        <f t="shared" si="0"/>
         <v>45901</v>
       </c>
       <c r="B37">
+        <f>[1]ATP!U53</f>
         <v>60</v>
       </c>
       <c r="C37">
+        <f>[1]ATP!AC53</f>
         <v>250</v>
       </c>
       <c r="D37">
+        <f>[1]ATP!AK53</f>
         <v>175</v>
       </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
+        <f t="shared" si="0"/>
         <v>45908</v>
       </c>
       <c r="B38">
+        <f>[1]ATP!U54</f>
         <v>40</v>
       </c>
       <c r="C38">
+        <f>[1]ATP!AC54</f>
         <v>150</v>
       </c>
       <c r="D38">
+        <f>[1]ATP!AK54</f>
         <v>150</v>
       </c>
-      <c r="F38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="K38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
+        <f t="shared" si="0"/>
         <v>45915</v>
       </c>
       <c r="B39">
+        <f>[1]ATP!U55</f>
         <v>50</v>
       </c>
       <c r="C39">
+        <f>[1]ATP!AC55</f>
         <v>200</v>
       </c>
       <c r="D39">
+        <f>[1]ATP!AK55</f>
         <v>160</v>
       </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
+        <f t="shared" si="0"/>
         <v>45922</v>
       </c>
       <c r="B40">
+        <f>[1]ATP!U56</f>
         <v>0</v>
       </c>
       <c r="C40">
+        <f>[1]ATP!AC56</f>
         <v>200</v>
       </c>
       <c r="D40">
+        <f>[1]ATP!AK56</f>
         <v>120</v>
       </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
+        <f t="shared" si="0"/>
         <v>45929</v>
       </c>
       <c r="B41">
+        <f>[1]ATP!U57</f>
         <v>0</v>
       </c>
       <c r="C41">
+        <f>[1]ATP!AC57</f>
         <v>200</v>
       </c>
       <c r="D41">
+        <f>[1]ATP!AK57</f>
         <v>120</v>
       </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
+        <f t="shared" si="0"/>
         <v>45936</v>
       </c>
       <c r="B42">
+        <f>[1]ATP!U58</f>
         <v>0</v>
       </c>
       <c r="C42">
+        <f>[1]ATP!AC58</f>
         <v>200</v>
       </c>
       <c r="D42">
+        <f>[1]ATP!AK58</f>
         <v>110</v>
       </c>
-      <c r="F42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
+        <f t="shared" si="0"/>
         <v>45943</v>
       </c>
       <c r="B43">
+        <f>[1]ATP!U59</f>
         <v>0</v>
       </c>
       <c r="C43">
+        <f>[1]ATP!AC59</f>
         <v>200</v>
       </c>
       <c r="D43">
+        <f>[1]ATP!AK59</f>
         <v>100</v>
       </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
+        <f t="shared" si="0"/>
         <v>45950</v>
       </c>
       <c r="B44">
+        <f>[1]ATP!U60</f>
         <v>0</v>
       </c>
       <c r="C44">
+        <f>[1]ATP!AC60</f>
         <v>200</v>
       </c>
       <c r="D44">
+        <f>[1]ATP!AK60</f>
         <v>100</v>
       </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
+        <f t="shared" si="0"/>
         <v>45957</v>
       </c>
       <c r="B45">
+        <f>[1]ATP!U61</f>
         <v>0</v>
       </c>
       <c r="C45">
+        <f>[1]ATP!AC61</f>
         <v>200</v>
       </c>
       <c r="D45">
+        <f>[1]ATP!AK61</f>
         <v>100</v>
       </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
+        <f t="shared" si="0"/>
         <v>45964</v>
       </c>
       <c r="B46">
+        <f>[1]ATP!U62</f>
         <v>0</v>
       </c>
       <c r="C46">
+        <f>[1]ATP!AC62</f>
         <v>200</v>
       </c>
       <c r="D46">
+        <f>[1]ATP!AK62</f>
         <v>100</v>
       </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
+        <f t="shared" si="0"/>
         <v>45971</v>
       </c>
       <c r="B47">
+        <f>[1]ATP!U63</f>
         <v>0</v>
       </c>
       <c r="C47">
+        <f>[1]ATP!AC63</f>
         <v>200</v>
       </c>
       <c r="D47">
+        <f>[1]ATP!AK63</f>
         <v>100</v>
       </c>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
+        <f t="shared" si="0"/>
         <v>45978</v>
       </c>
       <c r="B48">
+        <f>[1]ATP!U64</f>
         <v>0</v>
       </c>
       <c r="C48">
+        <f>[1]ATP!AC64</f>
         <v>200</v>
       </c>
       <c r="D48">
+        <f>[1]ATP!AK64</f>
         <v>100</v>
       </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
+        <f t="shared" si="0"/>
         <v>45985</v>
       </c>
       <c r="B49">
+        <f>[1]ATP!U65</f>
         <v>0</v>
       </c>
       <c r="C49">
+        <f>[1]ATP!AC65</f>
         <v>200</v>
       </c>
       <c r="D49">
+        <f>[1]ATP!AK65</f>
         <v>100</v>
       </c>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
+        <f t="shared" si="0"/>
         <v>45992</v>
       </c>
       <c r="B50">
+        <f>[1]ATP!U66</f>
         <v>0</v>
       </c>
       <c r="C50">
+        <f>[1]ATP!AC66</f>
         <v>200</v>
       </c>
       <c r="D50">
+        <f>[1]ATP!AK66</f>
         <v>100</v>
       </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
+        <f t="shared" si="0"/>
         <v>45999</v>
       </c>
       <c r="B51">
+        <f>[1]ATP!U67</f>
         <v>0</v>
       </c>
       <c r="C51">
+        <f>[1]ATP!AC67</f>
         <v>200</v>
       </c>
       <c r="D51">
+        <f>[1]ATP!AK67</f>
         <v>100</v>
       </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
+        <f t="shared" si="0"/>
         <v>46006</v>
       </c>
       <c r="B52">
+        <f>[1]ATP!U68</f>
         <v>0</v>
       </c>
       <c r="C52">
+        <f>[1]ATP!AC68</f>
         <v>200</v>
       </c>
       <c r="D52">
+        <f>[1]ATP!AK68</f>
         <v>100</v>
       </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
+        <f t="shared" si="0"/>
         <v>46013</v>
       </c>
       <c r="B53">
+        <f>[1]ATP!U69</f>
         <v>0</v>
       </c>
       <c r="C53">
+        <f>[1]ATP!AC69</f>
         <v>200</v>
       </c>
       <c r="D53">
+        <f>[1]ATP!AK69</f>
         <v>100</v>
       </c>
-      <c r="F53" t="s">
-        <v>12</v>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="K53" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ATP.xlsx
+++ b/ATP.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74730DC4-CA38-42EB-8C20-95972447F385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E16D1A-6D37-4942-950C-F11D077416FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="2590" windowWidth="19200" windowHeight="11170" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
   </bookViews>
   <sheets>
-    <sheet name="ATP" sheetId="1" r:id="rId1"/>
+    <sheet name="ATP (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="ATP" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
   <si>
     <t>start_date_local</t>
   </si>
@@ -136,7 +134,22 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -156,634 +169,41 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ATP"/>
-      <sheetName val="ATP_Python"/>
-      <sheetName val="Race-calendar"/>
-      <sheetName val="Annual Training Plan"/>
-      <sheetName val="ReadMe"/>
-      <sheetName val="Activities"/>
-      <sheetName val="Wellness"/>
-      <sheetName val="iThlete HRV"/>
-      <sheetName val="Lookup"/>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="18">
-          <cell r="U18">
-            <v>0</v>
-          </cell>
-          <cell r="AC18">
-            <v>50</v>
-          </cell>
-          <cell r="AK18">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="U19">
-            <v>0</v>
-          </cell>
-          <cell r="AC19">
-            <v>150</v>
-          </cell>
-          <cell r="AK19">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="U20">
-            <v>0</v>
-          </cell>
-          <cell r="AC20">
-            <v>160</v>
-          </cell>
-          <cell r="AK20">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="U21">
-            <v>0</v>
-          </cell>
-          <cell r="AC21">
-            <v>170</v>
-          </cell>
-          <cell r="AK21">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="U22">
-            <v>0</v>
-          </cell>
-          <cell r="AC22">
-            <v>140</v>
-          </cell>
-          <cell r="AK22">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="U23">
-            <v>0</v>
-          </cell>
-          <cell r="AC23">
-            <v>200</v>
-          </cell>
-          <cell r="AK23">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="U24">
-            <v>0</v>
-          </cell>
-          <cell r="AC24">
-            <v>200</v>
-          </cell>
-          <cell r="AK24">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="U25">
-            <v>0</v>
-          </cell>
-          <cell r="AC25">
-            <v>160</v>
-          </cell>
-          <cell r="AK25">
-            <v>70</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="U26">
-            <v>0</v>
-          </cell>
-          <cell r="AC26">
-            <v>210</v>
-          </cell>
-          <cell r="AK26">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="U27">
-            <v>0</v>
-          </cell>
-          <cell r="AC27">
-            <v>200</v>
-          </cell>
-          <cell r="AK27">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="U28">
-            <v>0</v>
-          </cell>
-          <cell r="AC28">
-            <v>200</v>
-          </cell>
-          <cell r="AK28">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="U29">
-            <v>0</v>
-          </cell>
-          <cell r="AC29">
-            <v>200</v>
-          </cell>
-          <cell r="AK29">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="U30">
-            <v>0</v>
-          </cell>
-          <cell r="AC30">
-            <v>200</v>
-          </cell>
-          <cell r="AK30">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="U31">
-            <v>0</v>
-          </cell>
-          <cell r="AC31">
-            <v>200</v>
-          </cell>
-          <cell r="AK31">
-            <v>175</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="U32">
-            <v>0</v>
-          </cell>
-          <cell r="AC32">
-            <v>200</v>
-          </cell>
-          <cell r="AK32">
-            <v>200</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="U33">
-            <v>0</v>
-          </cell>
-          <cell r="AC33">
-            <v>200</v>
-          </cell>
-          <cell r="AK33">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="U34">
-            <v>0</v>
-          </cell>
-          <cell r="AC34">
-            <v>210</v>
-          </cell>
-          <cell r="AK34">
-            <v>200</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="U35">
-            <v>40</v>
-          </cell>
-          <cell r="AC35">
-            <v>210</v>
-          </cell>
-          <cell r="AK35">
-            <v>200</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="U36">
-            <v>40</v>
-          </cell>
-          <cell r="AC36">
-            <v>220</v>
-          </cell>
-          <cell r="AK36">
-            <v>220</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="U37">
-            <v>40</v>
-          </cell>
-          <cell r="AC37">
-            <v>200</v>
-          </cell>
-          <cell r="AK37">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="U38">
-            <v>55</v>
-          </cell>
-          <cell r="AC38">
-            <v>260</v>
-          </cell>
-          <cell r="AK38">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="U39">
-            <v>50</v>
-          </cell>
-          <cell r="AC39">
-            <v>200</v>
-          </cell>
-          <cell r="AK39">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="U40">
-            <v>40</v>
-          </cell>
-          <cell r="AC40">
-            <v>200</v>
-          </cell>
-          <cell r="AK40">
-            <v>180</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="U41">
-            <v>0</v>
-          </cell>
-          <cell r="AC41">
-            <v>200</v>
-          </cell>
-          <cell r="AK41">
-            <v>135</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="U42">
-            <v>0</v>
-          </cell>
-          <cell r="AC42">
-            <v>200</v>
-          </cell>
-          <cell r="AK42">
-            <v>130</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="U43">
-            <v>0</v>
-          </cell>
-          <cell r="AC43">
-            <v>200</v>
-          </cell>
-          <cell r="AK43">
-            <v>122</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="U44">
-            <v>0</v>
-          </cell>
-          <cell r="AC44">
-            <v>200</v>
-          </cell>
-          <cell r="AK44">
-            <v>115</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="U45">
-            <v>0</v>
-          </cell>
-          <cell r="AC45">
-            <v>200</v>
-          </cell>
-          <cell r="AK45">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="U46">
-            <v>0</v>
-          </cell>
-          <cell r="AC46">
-            <v>200</v>
-          </cell>
-          <cell r="AK46">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="U47">
-            <v>0</v>
-          </cell>
-          <cell r="AC47">
-            <v>50</v>
-          </cell>
-          <cell r="AK47">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="U48">
-            <v>0</v>
-          </cell>
-          <cell r="AC48">
-            <v>50</v>
-          </cell>
-          <cell r="AK48">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="U49">
-            <v>0</v>
-          </cell>
-          <cell r="AC49">
-            <v>50</v>
-          </cell>
-          <cell r="AK49">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="U50">
-            <v>0</v>
-          </cell>
-          <cell r="AC50">
-            <v>200</v>
-          </cell>
-          <cell r="AK50">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="U51">
-            <v>40</v>
-          </cell>
-          <cell r="AC51">
-            <v>200</v>
-          </cell>
-          <cell r="AK51">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="U52">
-            <v>50</v>
-          </cell>
-          <cell r="AC52">
-            <v>200</v>
-          </cell>
-          <cell r="AK52">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="U53">
-            <v>60</v>
-          </cell>
-          <cell r="AC53">
-            <v>250</v>
-          </cell>
-          <cell r="AK53">
-            <v>175</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="U54">
-            <v>40</v>
-          </cell>
-          <cell r="AC54">
-            <v>150</v>
-          </cell>
-          <cell r="AK54">
-            <v>150</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="U55">
-            <v>50</v>
-          </cell>
-          <cell r="AC55">
-            <v>200</v>
-          </cell>
-          <cell r="AK55">
-            <v>160</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="U56">
-            <v>0</v>
-          </cell>
-          <cell r="AC56">
-            <v>200</v>
-          </cell>
-          <cell r="AK56">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="U57">
-            <v>0</v>
-          </cell>
-          <cell r="AC57">
-            <v>200</v>
-          </cell>
-          <cell r="AK57">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="U58">
-            <v>0</v>
-          </cell>
-          <cell r="AC58">
-            <v>200</v>
-          </cell>
-          <cell r="AK58">
-            <v>110</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="U59">
-            <v>0</v>
-          </cell>
-          <cell r="AC59">
-            <v>200</v>
-          </cell>
-          <cell r="AK59">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="U60">
-            <v>0</v>
-          </cell>
-          <cell r="AC60">
-            <v>200</v>
-          </cell>
-          <cell r="AK60">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="U61">
-            <v>0</v>
-          </cell>
-          <cell r="AC61">
-            <v>200</v>
-          </cell>
-          <cell r="AK61">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="U62">
-            <v>0</v>
-          </cell>
-          <cell r="AC62">
-            <v>200</v>
-          </cell>
-          <cell r="AK62">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="U63">
-            <v>0</v>
-          </cell>
-          <cell r="AC63">
-            <v>200</v>
-          </cell>
-          <cell r="AK63">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="U64">
-            <v>0</v>
-          </cell>
-          <cell r="AC64">
-            <v>200</v>
-          </cell>
-          <cell r="AK64">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="U65">
-            <v>0</v>
-          </cell>
-          <cell r="AC65">
-            <v>200</v>
-          </cell>
-          <cell r="AK65">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="U66">
-            <v>0</v>
-          </cell>
-          <cell r="AC66">
-            <v>200</v>
-          </cell>
-          <cell r="AK66">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="U67">
-            <v>0</v>
-          </cell>
-          <cell r="AC67">
-            <v>200</v>
-          </cell>
-          <cell r="AK67">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="U68">
-            <v>0</v>
-          </cell>
-          <cell r="AC68">
-            <v>200</v>
-          </cell>
-          <cell r="AK68">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="U69">
-            <v>0</v>
-          </cell>
-          <cell r="AC69">
-            <v>200</v>
-          </cell>
-          <cell r="AK69">
-            <v>100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C7A66A8-21A8-4DAF-AAAF-40B95D3AD612}" name="Tabel43" displayName="Tabel43" ref="A1:K53" totalsRowShown="0">
+  <autoFilter ref="A1:K53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{6694284B-5A10-4BD7-8B3A-746C9DAAB5D9}" name="start_date_local" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9D8E90EA-159C-445D-9538-8B5456DED878}" name="swim_load"/>
+    <tableColumn id="3" xr3:uid="{7AC53A14-24C4-43A1-805C-686BB66399FB}" name="bike_load"/>
+    <tableColumn id="4" xr3:uid="{8A4398F9-D87B-4B04-AF09-1A3C3890B19B}" name="run_load"/>
+    <tableColumn id="9" xr3:uid="{99B21F69-226D-4572-AB9B-2CB9C4C2D084}" name="swim_time"/>
+    <tableColumn id="8" xr3:uid="{C3FE2033-BC0F-42A5-8FCF-DEDD6E2547A5}" name="bike_time"/>
+    <tableColumn id="7" xr3:uid="{1FBDCF47-15E6-43DE-8ABB-7AC9AFF818F5}" name="run_time"/>
+    <tableColumn id="12" xr3:uid="{0B264CD2-25D4-4139-AF7A-6BAA79C79F00}" name="swim_distance"/>
+    <tableColumn id="11" xr3:uid="{43D3EC74-EA76-4685-B4E2-B246A35857F1}" name="bike_distance"/>
+    <tableColumn id="10" xr3:uid="{CDEEE0CE-5CC1-4607-9926-B14664E6015B}" name="run_distance"/>
+    <tableColumn id="5" xr3:uid="{51D5BE15-9B0D-47AD-9929-B276F3BF7059}" name="period" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}" name="Tabel4" displayName="Tabel4" ref="A1:K53" totalsRowShown="0">
   <autoFilter ref="A1:K53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00AC1D7C-F7EA-4AB3-A2C4-F4BCF2A305A7}" name="start_date_local" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9E15352F-434A-4EAC-BA00-F7D6AF3AF2FE}" name="swim_load">
-      <calculatedColumnFormula>[1]ATP!U18</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{61A6DD26-4464-4D9A-AF2C-DDF6287530BB}" name="bike_load">
-      <calculatedColumnFormula>[1]ATP!AC18</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{C6968185-0C45-4EE5-B564-BF591DCC7E11}" name="run_load">
-      <calculatedColumnFormula>[1]ATP!AK18</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{0974CF32-83F7-4688-8E0F-0C87F6D0AEA8}" name="swim_time"/>
-    <tableColumn id="8" xr3:uid="{F8D49066-8C3C-4E52-BBDB-81E3575EDB67}" name="bike_time"/>
-    <tableColumn id="7" xr3:uid="{58AFF2A7-F1A9-4872-B633-BB70278F98C0}" name="run_time"/>
+    <tableColumn id="1" xr3:uid="{00AC1D7C-F7EA-4AB3-A2C4-F4BCF2A305A7}" name="start_date_local" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9E15352F-434A-4EAC-BA00-F7D6AF3AF2FE}" name="swim_load"/>
+    <tableColumn id="3" xr3:uid="{61A6DD26-4464-4D9A-AF2C-DDF6287530BB}" name="bike_load"/>
+    <tableColumn id="4" xr3:uid="{C6968185-0C45-4EE5-B564-BF591DCC7E11}" name="run_load"/>
+    <tableColumn id="9" xr3:uid="{0974CF32-83F7-4688-8E0F-0C87F6D0AEA8}" name="swim_time" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F8D49066-8C3C-4E52-BBDB-81E3575EDB67}" name="bike_time" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{58AFF2A7-F1A9-4872-B633-BB70278F98C0}" name="run_time" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{D7559D9A-025E-4694-880D-3D67EF1798C6}" name="swim_distance"/>
     <tableColumn id="11" xr3:uid="{072CC298-5682-4CE5-8227-32206C100A4B}" name="bike_distance"/>
     <tableColumn id="10" xr3:uid="{78DF58AF-0354-4C65-8341-AFA6D16902D8}" name="run_distance"/>
-    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1105,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2EA41-FD23-436A-BE8E-FDD21FEF5240}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05784CAF-25A5-44BF-AD6B-56B17BD444D6}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K53" sqref="B2:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1167,15 +587,12 @@
         <v>45656</v>
       </c>
       <c r="B2">
-        <f>[1]ATP!U18</f>
         <v>0</v>
       </c>
       <c r="C2">
-        <f>[1]ATP!AC18</f>
         <v>50</v>
       </c>
       <c r="D2">
-        <f>[1]ATP!AK18</f>
         <v>50</v>
       </c>
       <c r="E2" s="2"/>
@@ -1187,19 +604,15 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <f>A2+7</f>
         <v>45663</v>
       </c>
       <c r="B3">
-        <f>[1]ATP!U19</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>[1]ATP!AC19</f>
         <v>150</v>
       </c>
       <c r="D3">
-        <f>[1]ATP!AK19</f>
         <v>100</v>
       </c>
       <c r="E3" s="2"/>
@@ -1211,19 +624,15 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A53" si="0">A3+7</f>
         <v>45670</v>
       </c>
       <c r="B4">
-        <f>[1]ATP!U20</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>[1]ATP!AC20</f>
         <v>160</v>
       </c>
       <c r="D4">
-        <f>[1]ATP!AK20</f>
         <v>100</v>
       </c>
       <c r="E4" s="2"/>
@@ -1235,19 +644,15 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
         <v>45677</v>
       </c>
       <c r="B5">
-        <f>[1]ATP!U21</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <f>[1]ATP!AC21</f>
         <v>170</v>
       </c>
       <c r="D5">
-        <f>[1]ATP!AK21</f>
         <v>110</v>
       </c>
       <c r="E5" s="2"/>
@@ -1259,19 +664,15 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
         <v>45684</v>
       </c>
       <c r="B6">
-        <f>[1]ATP!U22</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <f>[1]ATP!AC22</f>
         <v>140</v>
       </c>
       <c r="D6">
-        <f>[1]ATP!AK22</f>
         <v>100</v>
       </c>
       <c r="E6" s="2"/>
@@ -1283,19 +684,15 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
         <v>45691</v>
       </c>
       <c r="B7">
-        <f>[1]ATP!U23</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <f>[1]ATP!AC23</f>
         <v>200</v>
       </c>
       <c r="D7">
-        <f>[1]ATP!AK23</f>
         <v>80</v>
       </c>
       <c r="E7" s="2"/>
@@ -1307,19 +704,15 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
         <v>45698</v>
       </c>
       <c r="B8">
-        <f>[1]ATP!U24</f>
         <v>0</v>
       </c>
       <c r="C8">
-        <f>[1]ATP!AC24</f>
         <v>200</v>
       </c>
       <c r="D8">
-        <f>[1]ATP!AK24</f>
         <v>100</v>
       </c>
       <c r="E8" s="2"/>
@@ -1331,19 +724,15 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
         <v>45705</v>
       </c>
       <c r="B9">
-        <f>[1]ATP!U25</f>
         <v>0</v>
       </c>
       <c r="C9">
-        <f>[1]ATP!AC25</f>
         <v>160</v>
       </c>
       <c r="D9">
-        <f>[1]ATP!AK25</f>
         <v>70</v>
       </c>
       <c r="E9" s="2"/>
@@ -1355,19 +744,15 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
         <v>45712</v>
       </c>
       <c r="B10">
-        <f>[1]ATP!U26</f>
         <v>0</v>
       </c>
       <c r="C10">
-        <f>[1]ATP!AC26</f>
         <v>210</v>
       </c>
       <c r="D10">
-        <f>[1]ATP!AK26</f>
         <v>90</v>
       </c>
       <c r="E10" s="2"/>
@@ -1379,19 +764,15 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
         <v>45719</v>
       </c>
       <c r="B11">
-        <f>[1]ATP!U27</f>
         <v>0</v>
       </c>
       <c r="C11">
-        <f>[1]ATP!AC27</f>
         <v>200</v>
       </c>
       <c r="D11">
-        <f>[1]ATP!AK27</f>
         <v>120</v>
       </c>
       <c r="E11" s="2"/>
@@ -1403,19 +784,15 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
         <v>45726</v>
       </c>
       <c r="B12">
-        <f>[1]ATP!U28</f>
         <v>0</v>
       </c>
       <c r="C12">
-        <f>[1]ATP!AC28</f>
         <v>200</v>
       </c>
       <c r="D12">
-        <f>[1]ATP!AK28</f>
         <v>150</v>
       </c>
       <c r="E12" s="2"/>
@@ -1427,19 +804,15 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
         <v>45733</v>
       </c>
       <c r="B13">
-        <f>[1]ATP!U29</f>
         <v>0</v>
       </c>
       <c r="C13">
-        <f>[1]ATP!AC29</f>
         <v>200</v>
       </c>
       <c r="D13">
-        <f>[1]ATP!AK29</f>
         <v>60</v>
       </c>
       <c r="E13" s="2"/>
@@ -1451,19 +824,15 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
         <v>45740</v>
       </c>
       <c r="B14">
-        <f>[1]ATP!U30</f>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>[1]ATP!AC30</f>
         <v>200</v>
       </c>
       <c r="D14">
-        <f>[1]ATP!AK30</f>
         <v>150</v>
       </c>
       <c r="E14" s="2"/>
@@ -1475,19 +844,15 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
         <v>45747</v>
       </c>
       <c r="B15">
-        <f>[1]ATP!U31</f>
         <v>0</v>
       </c>
       <c r="C15">
-        <f>[1]ATP!AC31</f>
         <v>200</v>
       </c>
       <c r="D15">
-        <f>[1]ATP!AK31</f>
         <v>175</v>
       </c>
       <c r="E15" s="2"/>
@@ -1499,19 +864,15 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
         <v>45754</v>
       </c>
       <c r="B16">
-        <f>[1]ATP!U32</f>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>[1]ATP!AC32</f>
         <v>200</v>
       </c>
       <c r="D16">
-        <f>[1]ATP!AK32</f>
         <v>200</v>
       </c>
       <c r="E16" s="2"/>
@@ -1523,19 +884,15 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
         <v>45761</v>
       </c>
       <c r="B17">
-        <f>[1]ATP!U33</f>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>[1]ATP!AC33</f>
         <v>200</v>
       </c>
       <c r="D17">
-        <f>[1]ATP!AK33</f>
         <v>100</v>
       </c>
       <c r="E17" s="2"/>
@@ -1547,19 +904,15 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
         <v>45768</v>
       </c>
       <c r="B18">
-        <f>[1]ATP!U34</f>
         <v>0</v>
       </c>
       <c r="C18">
-        <f>[1]ATP!AC34</f>
         <v>210</v>
       </c>
       <c r="D18">
-        <f>[1]ATP!AK34</f>
         <v>200</v>
       </c>
       <c r="E18" s="2"/>
@@ -1571,19 +924,15 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
         <v>45775</v>
       </c>
       <c r="B19">
-        <f>[1]ATP!U35</f>
         <v>40</v>
       </c>
       <c r="C19">
-        <f>[1]ATP!AC35</f>
         <v>210</v>
       </c>
       <c r="D19">
-        <f>[1]ATP!AK35</f>
         <v>200</v>
       </c>
       <c r="E19" s="2"/>
@@ -1595,19 +944,15 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
         <v>45782</v>
       </c>
       <c r="B20">
-        <f>[1]ATP!U36</f>
         <v>40</v>
       </c>
       <c r="C20">
-        <f>[1]ATP!AC36</f>
         <v>220</v>
       </c>
       <c r="D20">
-        <f>[1]ATP!AK36</f>
         <v>220</v>
       </c>
       <c r="E20" s="2"/>
@@ -1619,19 +964,15 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
         <v>45789</v>
       </c>
       <c r="B21">
-        <f>[1]ATP!U37</f>
         <v>40</v>
       </c>
       <c r="C21">
-        <f>[1]ATP!AC37</f>
         <v>200</v>
       </c>
       <c r="D21">
-        <f>[1]ATP!AK37</f>
         <v>110</v>
       </c>
       <c r="E21" s="2"/>
@@ -1643,19 +984,15 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
         <v>45796</v>
       </c>
       <c r="B22">
-        <f>[1]ATP!U38</f>
         <v>55</v>
       </c>
       <c r="C22">
-        <f>[1]ATP!AC38</f>
         <v>260</v>
       </c>
       <c r="D22">
-        <f>[1]ATP!AK38</f>
         <v>180</v>
       </c>
       <c r="E22" s="2"/>
@@ -1667,19 +1004,15 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
         <v>45803</v>
       </c>
       <c r="B23">
-        <f>[1]ATP!U39</f>
         <v>50</v>
       </c>
       <c r="C23">
-        <f>[1]ATP!AC39</f>
         <v>200</v>
       </c>
       <c r="D23">
-        <f>[1]ATP!AK39</f>
         <v>100</v>
       </c>
       <c r="E23" s="2"/>
@@ -1691,19 +1024,15 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
         <v>45810</v>
       </c>
       <c r="B24">
-        <f>[1]ATP!U40</f>
         <v>40</v>
       </c>
       <c r="C24">
-        <f>[1]ATP!AC40</f>
         <v>200</v>
       </c>
       <c r="D24">
-        <f>[1]ATP!AK40</f>
         <v>180</v>
       </c>
       <c r="E24" s="2"/>
@@ -1715,19 +1044,15 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
         <v>45817</v>
       </c>
       <c r="B25">
-        <f>[1]ATP!U41</f>
         <v>0</v>
       </c>
       <c r="C25">
-        <f>[1]ATP!AC41</f>
         <v>200</v>
       </c>
       <c r="D25">
-        <f>[1]ATP!AK41</f>
         <v>135</v>
       </c>
       <c r="E25" s="2"/>
@@ -1739,19 +1064,15 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
         <v>45824</v>
       </c>
       <c r="B26">
-        <f>[1]ATP!U42</f>
         <v>0</v>
       </c>
       <c r="C26">
-        <f>[1]ATP!AC42</f>
         <v>200</v>
       </c>
       <c r="D26">
-        <f>[1]ATP!AK42</f>
         <v>130</v>
       </c>
       <c r="E26" s="2"/>
@@ -1763,19 +1084,15 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
         <v>45831</v>
       </c>
       <c r="B27">
-        <f>[1]ATP!U43</f>
         <v>0</v>
       </c>
       <c r="C27">
-        <f>[1]ATP!AC43</f>
         <v>200</v>
       </c>
       <c r="D27">
-        <f>[1]ATP!AK43</f>
         <v>122</v>
       </c>
       <c r="E27" s="2"/>
@@ -1787,19 +1104,15 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
         <v>45838</v>
       </c>
       <c r="B28">
-        <f>[1]ATP!U44</f>
         <v>0</v>
       </c>
       <c r="C28">
-        <f>[1]ATP!AC44</f>
         <v>200</v>
       </c>
       <c r="D28">
-        <f>[1]ATP!AK44</f>
         <v>115</v>
       </c>
       <c r="E28" s="2"/>
@@ -1811,19 +1124,15 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
         <v>45845</v>
       </c>
       <c r="B29">
-        <f>[1]ATP!U45</f>
         <v>0</v>
       </c>
       <c r="C29">
-        <f>[1]ATP!AC45</f>
         <v>200</v>
       </c>
       <c r="D29">
-        <f>[1]ATP!AK45</f>
         <v>110</v>
       </c>
       <c r="E29" s="2"/>
@@ -1835,19 +1144,15 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
         <v>45852</v>
       </c>
       <c r="B30">
-        <f>[1]ATP!U46</f>
         <v>0</v>
       </c>
       <c r="C30">
-        <f>[1]ATP!AC46</f>
         <v>200</v>
       </c>
       <c r="D30">
-        <f>[1]ATP!AK46</f>
         <v>100</v>
       </c>
       <c r="E30" s="2"/>
@@ -1859,19 +1164,15 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
         <v>45859</v>
       </c>
       <c r="B31">
-        <f>[1]ATP!U47</f>
         <v>0</v>
       </c>
       <c r="C31">
-        <f>[1]ATP!AC47</f>
         <v>50</v>
       </c>
       <c r="D31">
-        <f>[1]ATP!AK47</f>
         <v>50</v>
       </c>
       <c r="E31" s="2"/>
@@ -1883,19 +1184,15 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
         <v>45866</v>
       </c>
       <c r="B32">
-        <f>[1]ATP!U48</f>
         <v>0</v>
       </c>
       <c r="C32">
-        <f>[1]ATP!AC48</f>
         <v>50</v>
       </c>
       <c r="D32">
-        <f>[1]ATP!AK48</f>
         <v>50</v>
       </c>
       <c r="E32" s="2"/>
@@ -1907,19 +1204,15 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
         <v>45873</v>
       </c>
       <c r="B33">
-        <f>[1]ATP!U49</f>
         <v>0</v>
       </c>
       <c r="C33">
-        <f>[1]ATP!AC49</f>
         <v>50</v>
       </c>
       <c r="D33">
-        <f>[1]ATP!AK49</f>
         <v>50</v>
       </c>
       <c r="E33" s="2"/>
@@ -1931,19 +1224,15 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
         <v>45880</v>
       </c>
       <c r="B34">
-        <f>[1]ATP!U50</f>
         <v>0</v>
       </c>
       <c r="C34">
-        <f>[1]ATP!AC50</f>
         <v>200</v>
       </c>
       <c r="D34">
-        <f>[1]ATP!AK50</f>
         <v>100</v>
       </c>
       <c r="E34" s="2"/>
@@ -1955,19 +1244,15 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
         <v>45887</v>
       </c>
       <c r="B35">
-        <f>[1]ATP!U51</f>
         <v>40</v>
       </c>
       <c r="C35">
-        <f>[1]ATP!AC51</f>
         <v>200</v>
       </c>
       <c r="D35">
-        <f>[1]ATP!AK51</f>
         <v>80</v>
       </c>
       <c r="E35" s="2"/>
@@ -1979,19 +1264,15 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
         <v>45894</v>
       </c>
       <c r="B36">
-        <f>[1]ATP!U52</f>
         <v>50</v>
       </c>
       <c r="C36">
-        <f>[1]ATP!AC52</f>
         <v>200</v>
       </c>
       <c r="D36">
-        <f>[1]ATP!AK52</f>
         <v>100</v>
       </c>
       <c r="E36" s="2"/>
@@ -2003,19 +1284,15 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
         <v>45901</v>
       </c>
       <c r="B37">
-        <f>[1]ATP!U53</f>
         <v>60</v>
       </c>
       <c r="C37">
-        <f>[1]ATP!AC53</f>
         <v>250</v>
       </c>
       <c r="D37">
-        <f>[1]ATP!AK53</f>
         <v>175</v>
       </c>
       <c r="E37" s="2"/>
@@ -2027,19 +1304,15 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
         <v>45908</v>
       </c>
       <c r="B38">
-        <f>[1]ATP!U54</f>
         <v>40</v>
       </c>
       <c r="C38">
-        <f>[1]ATP!AC54</f>
         <v>150</v>
       </c>
       <c r="D38">
-        <f>[1]ATP!AK54</f>
         <v>150</v>
       </c>
       <c r="E38" s="2"/>
@@ -2051,19 +1324,15 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
         <v>45915</v>
       </c>
       <c r="B39">
-        <f>[1]ATP!U55</f>
         <v>50</v>
       </c>
       <c r="C39">
-        <f>[1]ATP!AC55</f>
         <v>200</v>
       </c>
       <c r="D39">
-        <f>[1]ATP!AK55</f>
         <v>160</v>
       </c>
       <c r="E39" s="2"/>
@@ -2075,19 +1344,15 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
         <v>45922</v>
       </c>
       <c r="B40">
-        <f>[1]ATP!U56</f>
         <v>0</v>
       </c>
       <c r="C40">
-        <f>[1]ATP!AC56</f>
         <v>200</v>
       </c>
       <c r="D40">
-        <f>[1]ATP!AK56</f>
         <v>120</v>
       </c>
       <c r="E40" s="2"/>
@@ -2099,19 +1364,15 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
         <v>45929</v>
       </c>
       <c r="B41">
-        <f>[1]ATP!U57</f>
         <v>0</v>
       </c>
       <c r="C41">
-        <f>[1]ATP!AC57</f>
         <v>200</v>
       </c>
       <c r="D41">
-        <f>[1]ATP!AK57</f>
         <v>120</v>
       </c>
       <c r="E41" s="2"/>
@@ -2123,19 +1384,15 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
         <v>45936</v>
       </c>
       <c r="B42">
-        <f>[1]ATP!U58</f>
         <v>0</v>
       </c>
       <c r="C42">
-        <f>[1]ATP!AC58</f>
         <v>200</v>
       </c>
       <c r="D42">
-        <f>[1]ATP!AK58</f>
         <v>110</v>
       </c>
       <c r="E42" s="2"/>
@@ -2147,19 +1404,15 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
         <v>45943</v>
       </c>
       <c r="B43">
-        <f>[1]ATP!U59</f>
         <v>0</v>
       </c>
       <c r="C43">
-        <f>[1]ATP!AC59</f>
         <v>200</v>
       </c>
       <c r="D43">
-        <f>[1]ATP!AK59</f>
         <v>100</v>
       </c>
       <c r="E43" s="2"/>
@@ -2171,19 +1424,15 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
         <v>45950</v>
       </c>
       <c r="B44">
-        <f>[1]ATP!U60</f>
         <v>0</v>
       </c>
       <c r="C44">
-        <f>[1]ATP!AC60</f>
         <v>200</v>
       </c>
       <c r="D44">
-        <f>[1]ATP!AK60</f>
         <v>100</v>
       </c>
       <c r="E44" s="2"/>
@@ -2195,19 +1444,15 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <f t="shared" si="0"/>
         <v>45957</v>
       </c>
       <c r="B45">
-        <f>[1]ATP!U61</f>
         <v>0</v>
       </c>
       <c r="C45">
-        <f>[1]ATP!AC61</f>
         <v>200</v>
       </c>
       <c r="D45">
-        <f>[1]ATP!AK61</f>
         <v>100</v>
       </c>
       <c r="E45" s="2"/>
@@ -2219,19 +1464,15 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
         <v>45964</v>
       </c>
       <c r="B46">
-        <f>[1]ATP!U62</f>
         <v>0</v>
       </c>
       <c r="C46">
-        <f>[1]ATP!AC62</f>
         <v>200</v>
       </c>
       <c r="D46">
-        <f>[1]ATP!AK62</f>
         <v>100</v>
       </c>
       <c r="E46" s="2"/>
@@ -2243,19 +1484,15 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
         <v>45971</v>
       </c>
       <c r="B47">
-        <f>[1]ATP!U63</f>
         <v>0</v>
       </c>
       <c r="C47">
-        <f>[1]ATP!AC63</f>
         <v>200</v>
       </c>
       <c r="D47">
-        <f>[1]ATP!AK63</f>
         <v>100</v>
       </c>
       <c r="E47" s="2"/>
@@ -2267,19 +1504,15 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
         <v>45978</v>
       </c>
       <c r="B48">
-        <f>[1]ATP!U64</f>
         <v>0</v>
       </c>
       <c r="C48">
-        <f>[1]ATP!AC64</f>
         <v>200</v>
       </c>
       <c r="D48">
-        <f>[1]ATP!AK64</f>
         <v>100</v>
       </c>
       <c r="E48" s="2"/>
@@ -2291,19 +1524,15 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
         <v>45985</v>
       </c>
       <c r="B49">
-        <f>[1]ATP!U65</f>
         <v>0</v>
       </c>
       <c r="C49">
-        <f>[1]ATP!AC65</f>
         <v>200</v>
       </c>
       <c r="D49">
-        <f>[1]ATP!AK65</f>
         <v>100</v>
       </c>
       <c r="E49" s="2"/>
@@ -2315,19 +1544,15 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
         <v>45992</v>
       </c>
       <c r="B50">
-        <f>[1]ATP!U66</f>
         <v>0</v>
       </c>
       <c r="C50">
-        <f>[1]ATP!AC66</f>
         <v>200</v>
       </c>
       <c r="D50">
-        <f>[1]ATP!AK66</f>
         <v>100</v>
       </c>
       <c r="E50" s="2"/>
@@ -2339,19 +1564,15 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
         <v>45999</v>
       </c>
       <c r="B51">
-        <f>[1]ATP!U67</f>
         <v>0</v>
       </c>
       <c r="C51">
-        <f>[1]ATP!AC67</f>
         <v>200</v>
       </c>
       <c r="D51">
-        <f>[1]ATP!AK67</f>
         <v>100</v>
       </c>
       <c r="E51" s="2"/>
@@ -2363,19 +1584,15 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <f t="shared" si="0"/>
         <v>46006</v>
       </c>
       <c r="B52">
-        <f>[1]ATP!U68</f>
         <v>0</v>
       </c>
       <c r="C52">
-        <f>[1]ATP!AC68</f>
         <v>200</v>
       </c>
       <c r="D52">
-        <f>[1]ATP!AK68</f>
         <v>100</v>
       </c>
       <c r="E52" s="2"/>
@@ -2387,19 +1604,1130 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <f t="shared" si="0"/>
         <v>46013</v>
       </c>
       <c r="B53">
-        <f>[1]ATP!U69</f>
         <v>0</v>
       </c>
       <c r="C53">
-        <f>[1]ATP!AC69</f>
         <v>200</v>
       </c>
       <c r="D53">
-        <f>[1]ATP!AK69</f>
+        <v>100</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2EA41-FD23-436A-BE8E-FDD21FEF5240}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2">
+        <v>2000</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>160</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>170</v>
+      </c>
+      <c r="D5">
+        <v>110</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>160</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>210</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>175</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <v>200</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>210</v>
+      </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>210</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>220</v>
+      </c>
+      <c r="D20">
+        <v>220</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>110</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B22">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>260</v>
+      </c>
+      <c r="D22">
+        <v>180</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+      <c r="D24">
+        <v>180</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>135</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+      <c r="D26">
+        <v>130</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+      <c r="D27">
+        <v>122</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
+      </c>
+      <c r="D28">
+        <v>115</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <v>110</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31">
+        <v>50</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="K31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="K33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>200</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="K34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="D35">
+        <v>80</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="K35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="K36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B37">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>250</v>
+      </c>
+      <c r="D37">
+        <v>175</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>150</v>
+      </c>
+      <c r="D38">
+        <v>150</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="K38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>200</v>
+      </c>
+      <c r="D39">
+        <v>160</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>45922</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+      <c r="D40">
+        <v>120</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="D41">
+        <v>120</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>45936</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+      <c r="D42">
+        <v>110</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>200</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>200</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>200</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>200</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>200</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>200</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>200</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>46006</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>200</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>46013</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>200</v>
+      </c>
+      <c r="D53">
         <v>100</v>
       </c>
       <c r="E53" s="2"/>

--- a/ATP.xlsx
+++ b/ATP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E16D1A-6D37-4942-950C-F11D077416FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2B33FD-0453-41E6-B074-69F6E1C3F160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
+    <workbookView xWindow="2160" yWindow="2930" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP (2)" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="29">
   <si>
     <t>start_date_local</t>
   </si>
@@ -92,15 +92,54 @@
   <si>
     <t>Transition</t>
   </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>endurance</t>
+  </si>
+  <si>
+    <t>technique</t>
+  </si>
+  <si>
+    <t>your raceday!</t>
+  </si>
+  <si>
+    <t>recovery</t>
+  </si>
+  <si>
+    <t>staying strong</t>
+  </si>
+  <si>
+    <t>a lot of training!</t>
+  </si>
+  <si>
+    <t>preparing for race.</t>
+  </si>
+  <si>
+    <t>Christmas...</t>
+  </si>
+  <si>
+    <t>nothing at all.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,7 +175,7 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -145,7 +184,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
@@ -190,20 +229,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}" name="Tabel4" displayName="Tabel4" ref="A1:K53" totalsRowShown="0">
-  <autoFilter ref="A1:K53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}" name="Tabel4" displayName="Tabel4" ref="A1:L53" totalsRowShown="0">
+  <autoFilter ref="A1:L53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00AC1D7C-F7EA-4AB3-A2C4-F4BCF2A305A7}" name="start_date_local" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9E15352F-434A-4EAC-BA00-F7D6AF3AF2FE}" name="swim_load"/>
     <tableColumn id="3" xr3:uid="{61A6DD26-4464-4D9A-AF2C-DDF6287530BB}" name="bike_load"/>
     <tableColumn id="4" xr3:uid="{C6968185-0C45-4EE5-B564-BF591DCC7E11}" name="run_load"/>
-    <tableColumn id="9" xr3:uid="{0974CF32-83F7-4688-8E0F-0C87F6D0AEA8}" name="swim_time" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{F8D49066-8C3C-4E52-BBDB-81E3575EDB67}" name="bike_time" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{58AFF2A7-F1A9-4872-B633-BB70278F98C0}" name="run_time" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{0974CF32-83F7-4688-8E0F-0C87F6D0AEA8}" name="swim_time" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{F8D49066-8C3C-4E52-BBDB-81E3575EDB67}" name="bike_time" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{58AFF2A7-F1A9-4872-B633-BB70278F98C0}" name="run_time" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{D7559D9A-025E-4694-880D-3D67EF1798C6}" name="swim_distance"/>
     <tableColumn id="11" xr3:uid="{072CC298-5682-4CE5-8227-32206C100A4B}" name="bike_distance"/>
     <tableColumn id="10" xr3:uid="{78DF58AF-0354-4C65-8341-AFA6D16902D8}" name="run_distance"/>
-    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{C7D2E79E-99BF-4432-93B5-E2DBC73A5B1D}" name="focus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1632,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2EA41-FD23-436A-BE8E-FDD21FEF5240}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L44" sqref="L44:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1651,9 +1691,10 @@
     <col min="9" max="9" width="15.6328125" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" customWidth="1"/>
     <col min="11" max="11" width="12.1796875" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1687,8 +1728,11 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45656</v>
       </c>
@@ -1704,20 +1748,14 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2">
-        <v>2000</v>
-      </c>
-      <c r="I2">
-        <v>200</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45663</v>
       </c>
@@ -1736,8 +1774,11 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45670</v>
       </c>
@@ -1756,8 +1797,11 @@
       <c r="K4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45677</v>
       </c>
@@ -1776,8 +1820,11 @@
       <c r="K5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45684</v>
       </c>
@@ -1796,8 +1843,11 @@
       <c r="K6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45691</v>
       </c>
@@ -1816,8 +1866,11 @@
       <c r="K7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45698</v>
       </c>
@@ -1836,8 +1889,11 @@
       <c r="K8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45705</v>
       </c>
@@ -1856,8 +1912,11 @@
       <c r="K9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45712</v>
       </c>
@@ -1876,8 +1935,11 @@
       <c r="K10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45719</v>
       </c>
@@ -1897,7 +1959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45726</v>
       </c>
@@ -1917,7 +1979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45733</v>
       </c>
@@ -1937,7 +1999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45740</v>
       </c>
@@ -1957,7 +2019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45747</v>
       </c>
@@ -1977,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45754</v>
       </c>
@@ -1997,7 +2059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45761</v>
       </c>
@@ -2017,7 +2079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45768</v>
       </c>
@@ -2037,7 +2099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45775</v>
       </c>
@@ -2057,7 +2119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45782</v>
       </c>
@@ -2077,7 +2139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45789</v>
       </c>
@@ -2097,7 +2159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45796</v>
       </c>
@@ -2117,7 +2179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45803</v>
       </c>
@@ -2136,8 +2198,11 @@
       <c r="K23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45810</v>
       </c>
@@ -2156,8 +2221,11 @@
       <c r="K24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45817</v>
       </c>
@@ -2176,8 +2244,11 @@
       <c r="K25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45824</v>
       </c>
@@ -2196,8 +2267,11 @@
       <c r="K26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45831</v>
       </c>
@@ -2216,8 +2290,11 @@
       <c r="K27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45838</v>
       </c>
@@ -2236,8 +2313,11 @@
       <c r="K28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45845</v>
       </c>
@@ -2256,8 +2336,11 @@
       <c r="K29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45852</v>
       </c>
@@ -2276,8 +2359,11 @@
       <c r="K30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45859</v>
       </c>
@@ -2297,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45866</v>
       </c>
@@ -2317,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45873</v>
       </c>
@@ -2337,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45880</v>
       </c>
@@ -2356,8 +2442,11 @@
       <c r="K34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45887</v>
       </c>
@@ -2376,8 +2465,11 @@
       <c r="K35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45894</v>
       </c>
@@ -2396,8 +2488,11 @@
       <c r="K36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45901</v>
       </c>
@@ -2416,8 +2511,11 @@
       <c r="K37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45908</v>
       </c>
@@ -2436,8 +2534,11 @@
       <c r="K38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45915</v>
       </c>
@@ -2456,8 +2557,11 @@
       <c r="K39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45922</v>
       </c>
@@ -2476,8 +2580,11 @@
       <c r="K40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45929</v>
       </c>
@@ -2496,8 +2603,11 @@
       <c r="K41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45936</v>
       </c>
@@ -2516,8 +2626,11 @@
       <c r="K42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45943</v>
       </c>
@@ -2536,8 +2649,11 @@
       <c r="K43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45950</v>
       </c>
@@ -2556,8 +2672,11 @@
       <c r="K44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45957</v>
       </c>
@@ -2576,8 +2695,11 @@
       <c r="K45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45964</v>
       </c>
@@ -2596,8 +2718,11 @@
       <c r="K46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45971</v>
       </c>
@@ -2616,8 +2741,11 @@
       <c r="K47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45978</v>
       </c>
@@ -2636,8 +2764,11 @@
       <c r="K48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45985</v>
       </c>
@@ -2656,8 +2787,11 @@
       <c r="K49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45992</v>
       </c>
@@ -2676,8 +2810,11 @@
       <c r="K50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45999</v>
       </c>
@@ -2696,8 +2833,11 @@
       <c r="K51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>46006</v>
       </c>
@@ -2716,8 +2856,11 @@
       <c r="K52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>46013</v>
       </c>
@@ -2736,8 +2879,12 @@
       <c r="K53" t="s">
         <v>17</v>
       </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/ATP.xlsx
+++ b/ATP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2B33FD-0453-41E6-B074-69F6E1C3F160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF5DB8E-8694-4E8B-A091-EAA9A9C6BA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2930" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
   </bookViews>
   <sheets>
     <sheet name="ATP (2)" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="34">
   <si>
     <t>start_date_local</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>nothing at all.</t>
+  </si>
+  <si>
+    <t>V02-max workouts</t>
+  </si>
+  <si>
+    <t>Treshold workouts</t>
+  </si>
+  <si>
+    <t>ride_load</t>
+  </si>
+  <si>
+    <t>ride_time</t>
+  </si>
+  <si>
+    <t>ride_distance</t>
   </si>
 </sst>
 </file>
@@ -173,10 +188,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -192,9 +204,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -209,40 +218,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4C7A66A8-21A8-4DAF-AAAF-40B95D3AD612}" name="Tabel43" displayName="Tabel43" ref="A1:K53" totalsRowShown="0">
-  <autoFilter ref="A1:K53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6694284B-5A10-4BD7-8B3A-746C9DAAB5D9}" name="start_date_local" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9D8E90EA-159C-445D-9538-8B5456DED878}" name="swim_load"/>
-    <tableColumn id="3" xr3:uid="{7AC53A14-24C4-43A1-805C-686BB66399FB}" name="bike_load"/>
-    <tableColumn id="4" xr3:uid="{8A4398F9-D87B-4B04-AF09-1A3C3890B19B}" name="run_load"/>
-    <tableColumn id="9" xr3:uid="{99B21F69-226D-4572-AB9B-2CB9C4C2D084}" name="swim_time"/>
-    <tableColumn id="8" xr3:uid="{C3FE2033-BC0F-42A5-8FCF-DEDD6E2547A5}" name="bike_time"/>
-    <tableColumn id="7" xr3:uid="{1FBDCF47-15E6-43DE-8ABB-7AC9AFF818F5}" name="run_time"/>
-    <tableColumn id="12" xr3:uid="{0B264CD2-25D4-4139-AF7A-6BAA79C79F00}" name="swim_distance"/>
-    <tableColumn id="11" xr3:uid="{43D3EC74-EA76-4685-B4E2-B246A35857F1}" name="bike_distance"/>
-    <tableColumn id="10" xr3:uid="{CDEEE0CE-5CC1-4607-9926-B14664E6015B}" name="run_distance"/>
-    <tableColumn id="5" xr3:uid="{51D5BE15-9B0D-47AD-9929-B276F3BF7059}" name="period" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}" name="Tabel4" displayName="Tabel4" ref="A1:L53" totalsRowShown="0">
   <autoFilter ref="A1:L53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00AC1D7C-F7EA-4AB3-A2C4-F4BCF2A305A7}" name="start_date_local" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00AC1D7C-F7EA-4AB3-A2C4-F4BCF2A305A7}" name="start_date_local" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{9E15352F-434A-4EAC-BA00-F7D6AF3AF2FE}" name="swim_load"/>
-    <tableColumn id="3" xr3:uid="{61A6DD26-4464-4D9A-AF2C-DDF6287530BB}" name="bike_load"/>
+    <tableColumn id="3" xr3:uid="{61A6DD26-4464-4D9A-AF2C-DDF6287530BB}" name="ride_load"/>
     <tableColumn id="4" xr3:uid="{C6968185-0C45-4EE5-B564-BF591DCC7E11}" name="run_load"/>
-    <tableColumn id="9" xr3:uid="{0974CF32-83F7-4688-8E0F-0C87F6D0AEA8}" name="swim_time" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F8D49066-8C3C-4E52-BBDB-81E3575EDB67}" name="bike_time" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{58AFF2A7-F1A9-4872-B633-BB70278F98C0}" name="run_time" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{0974CF32-83F7-4688-8E0F-0C87F6D0AEA8}" name="swim_time" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{F8D49066-8C3C-4E52-BBDB-81E3575EDB67}" name="ride_time" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{58AFF2A7-F1A9-4872-B633-BB70278F98C0}" name="run_time" dataDxfId="0"/>
     <tableColumn id="12" xr3:uid="{D7559D9A-025E-4694-880D-3D67EF1798C6}" name="swim_distance"/>
-    <tableColumn id="11" xr3:uid="{072CC298-5682-4CE5-8227-32206C100A4B}" name="bike_distance"/>
+    <tableColumn id="11" xr3:uid="{072CC298-5682-4CE5-8227-32206C100A4B}" name="ride_distance"/>
     <tableColumn id="10" xr3:uid="{78DF58AF-0354-4C65-8341-AFA6D16902D8}" name="run_distance"/>
-    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{C7D2E79E-99BF-4432-93B5-E2DBC73A5B1D}" name="focus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -566,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05784CAF-25A5-44BF-AD6B-56B17BD444D6}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K53" sqref="B2:K53"/>
+      <selection activeCell="L53" sqref="A1:L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,11 +572,10 @@
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.36328125" customWidth="1"/>
     <col min="9" max="9" width="15.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +609,11 @@
       <c r="K1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45656</v>
       </c>
@@ -641,8 +632,11 @@
       <c r="K2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45663</v>
       </c>
@@ -661,8 +655,11 @@
       <c r="K3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45670</v>
       </c>
@@ -681,8 +678,11 @@
       <c r="K4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45677</v>
       </c>
@@ -701,8 +701,11 @@
       <c r="K5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45684</v>
       </c>
@@ -721,8 +724,11 @@
       <c r="K6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45691</v>
       </c>
@@ -741,8 +747,11 @@
       <c r="K7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45698</v>
       </c>
@@ -761,8 +770,11 @@
       <c r="K8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45705</v>
       </c>
@@ -781,8 +793,11 @@
       <c r="K9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45712</v>
       </c>
@@ -801,8 +816,11 @@
       <c r="K10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45719</v>
       </c>
@@ -821,8 +839,11 @@
       <c r="K11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45726</v>
       </c>
@@ -841,8 +862,11 @@
       <c r="K12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45733</v>
       </c>
@@ -861,8 +885,11 @@
       <c r="K13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45740</v>
       </c>
@@ -881,8 +908,11 @@
       <c r="K14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45747</v>
       </c>
@@ -901,8 +931,11 @@
       <c r="K15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45754</v>
       </c>
@@ -921,8 +954,11 @@
       <c r="K16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45761</v>
       </c>
@@ -941,8 +977,11 @@
       <c r="K17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45768</v>
       </c>
@@ -961,8 +1000,11 @@
       <c r="K18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45775</v>
       </c>
@@ -981,8 +1023,11 @@
       <c r="K19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45782</v>
       </c>
@@ -1001,8 +1046,11 @@
       <c r="K20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45789</v>
       </c>
@@ -1021,8 +1069,11 @@
       <c r="K21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45796</v>
       </c>
@@ -1041,8 +1092,11 @@
       <c r="K22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45803</v>
       </c>
@@ -1061,8 +1115,11 @@
       <c r="K23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45810</v>
       </c>
@@ -1081,8 +1138,11 @@
       <c r="K24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45817</v>
       </c>
@@ -1101,8 +1161,11 @@
       <c r="K25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45824</v>
       </c>
@@ -1121,8 +1184,11 @@
       <c r="K26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45831</v>
       </c>
@@ -1141,8 +1207,11 @@
       <c r="K27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45838</v>
       </c>
@@ -1161,8 +1230,11 @@
       <c r="K28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45845</v>
       </c>
@@ -1181,8 +1253,11 @@
       <c r="K29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45852</v>
       </c>
@@ -1201,8 +1276,11 @@
       <c r="K30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45859</v>
       </c>
@@ -1222,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45866</v>
       </c>
@@ -1242,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45873</v>
       </c>
@@ -1262,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45880</v>
       </c>
@@ -1281,8 +1359,11 @@
       <c r="K34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45887</v>
       </c>
@@ -1301,8 +1382,11 @@
       <c r="K35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45894</v>
       </c>
@@ -1321,8 +1405,11 @@
       <c r="K36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45901</v>
       </c>
@@ -1341,8 +1428,11 @@
       <c r="K37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45908</v>
       </c>
@@ -1361,8 +1451,11 @@
       <c r="K38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45915</v>
       </c>
@@ -1381,8 +1474,11 @@
       <c r="K39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45922</v>
       </c>
@@ -1401,8 +1497,11 @@
       <c r="K40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45929</v>
       </c>
@@ -1421,8 +1520,11 @@
       <c r="K41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45936</v>
       </c>
@@ -1441,8 +1543,11 @@
       <c r="K42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45943</v>
       </c>
@@ -1461,8 +1566,11 @@
       <c r="K43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45950</v>
       </c>
@@ -1481,8 +1589,11 @@
       <c r="K44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45957</v>
       </c>
@@ -1501,8 +1612,11 @@
       <c r="K45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45964</v>
       </c>
@@ -1521,8 +1635,11 @@
       <c r="K46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45971</v>
       </c>
@@ -1541,8 +1658,11 @@
       <c r="K47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45978</v>
       </c>
@@ -1561,8 +1681,11 @@
       <c r="K48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45985</v>
       </c>
@@ -1581,8 +1704,11 @@
       <c r="K49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45992</v>
       </c>
@@ -1601,8 +1727,11 @@
       <c r="K50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45999</v>
       </c>
@@ -1621,8 +1750,11 @@
       <c r="K51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>46006</v>
       </c>
@@ -1641,8 +1773,11 @@
       <c r="K52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>46013</v>
       </c>
@@ -1661,12 +1796,12 @@
       <c r="K53" t="s">
         <v>17</v>
       </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1675,21 +1810,21 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44:L52"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1796875" customWidth="1"/>
     <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1702,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1711,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -1720,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>10</v>
@@ -1740,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -1958,6 +2093,9 @@
       <c r="K11" t="s">
         <v>13</v>
       </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -1978,6 +2116,9 @@
       <c r="K12" t="s">
         <v>13</v>
       </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
@@ -1998,6 +2139,9 @@
       <c r="K13" t="s">
         <v>13</v>
       </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -2018,6 +2162,9 @@
       <c r="K14" t="s">
         <v>13</v>
       </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
@@ -2038,6 +2185,9 @@
       <c r="K15" t="s">
         <v>13</v>
       </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -2058,6 +2208,9 @@
       <c r="K16" t="s">
         <v>13</v>
       </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -2078,6 +2231,9 @@
       <c r="K17" t="s">
         <v>13</v>
       </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -2098,6 +2254,9 @@
       <c r="K18" t="s">
         <v>13</v>
       </c>
+      <c r="L18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
@@ -2118,6 +2277,9 @@
       <c r="K19" t="s">
         <v>13</v>
       </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -2138,6 +2300,9 @@
       <c r="K20" t="s">
         <v>13</v>
       </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -2158,6 +2323,9 @@
       <c r="K21" t="s">
         <v>13</v>
       </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -2177,6 +2345,9 @@
       <c r="G22" s="2"/>
       <c r="K22" t="s">
         <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">

--- a/ATP.xlsx
+++ b/ATP.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF5DB8E-8694-4E8B-A091-EAA9A9C6BA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB80B50-B8A1-4916-929A-CA3BF90EEADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
   </bookViews>
   <sheets>
-    <sheet name="ATP (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="ATP" sheetId="1" r:id="rId2"/>
+    <sheet name="ATP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="31">
   <si>
     <t>start_date_local</t>
   </si>
@@ -48,15 +47,9 @@
     <t>swim_load</t>
   </si>
   <si>
-    <t>bike_load</t>
-  </si>
-  <si>
     <t>swim_time</t>
   </si>
   <si>
-    <t>bike_time</t>
-  </si>
-  <si>
     <t>run_load</t>
   </si>
   <si>
@@ -64,9 +57,6 @@
   </si>
   <si>
     <t>swim_distance</t>
-  </si>
-  <si>
-    <t>bike_distance</t>
   </si>
   <si>
     <t>run_distance</t>
@@ -190,6 +180,9 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -200,9 +193,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,17 +211,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}" name="Tabel4" displayName="Tabel4" ref="A1:L53" totalsRowShown="0">
   <autoFilter ref="A1:L53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00AC1D7C-F7EA-4AB3-A2C4-F4BCF2A305A7}" name="start_date_local" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00AC1D7C-F7EA-4AB3-A2C4-F4BCF2A305A7}" name="start_date_local" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9E15352F-434A-4EAC-BA00-F7D6AF3AF2FE}" name="swim_load"/>
     <tableColumn id="3" xr3:uid="{61A6DD26-4464-4D9A-AF2C-DDF6287530BB}" name="ride_load"/>
     <tableColumn id="4" xr3:uid="{C6968185-0C45-4EE5-B564-BF591DCC7E11}" name="run_load"/>
-    <tableColumn id="9" xr3:uid="{0974CF32-83F7-4688-8E0F-0C87F6D0AEA8}" name="swim_time" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{F8D49066-8C3C-4E52-BBDB-81E3575EDB67}" name="ride_time" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{58AFF2A7-F1A9-4872-B633-BB70278F98C0}" name="run_time" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{0974CF32-83F7-4688-8E0F-0C87F6D0AEA8}" name="swim_time" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{F8D49066-8C3C-4E52-BBDB-81E3575EDB67}" name="ride_time" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{58AFF2A7-F1A9-4872-B633-BB70278F98C0}" name="run_time" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{D7559D9A-025E-4694-880D-3D67EF1798C6}" name="swim_distance"/>
     <tableColumn id="11" xr3:uid="{072CC298-5682-4CE5-8227-32206C100A4B}" name="ride_distance"/>
     <tableColumn id="10" xr3:uid="{78DF58AF-0354-4C65-8341-AFA6D16902D8}" name="run_distance"/>
-    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{C7D2E79E-99BF-4432-93B5-E2DBC73A5B1D}" name="focus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -554,1270 +544,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05784CAF-25A5-44BF-AD6B-56B17BD444D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2EA41-FD23-436A-BE8E-FDD21FEF5240}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L53" sqref="A1:L53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.6328125" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>45656</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45663</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>150</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>45670</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>160</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45677</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>170</v>
-      </c>
-      <c r="D5">
-        <v>110</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>45684</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>140</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45691</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>45698</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>45705</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>160</v>
-      </c>
-      <c r="D9">
-        <v>70</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>45712</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>210</v>
-      </c>
-      <c r="D10">
-        <v>90</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="K10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>45719</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11">
-        <v>120</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>45726</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="D12">
-        <v>150</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>45733</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-      <c r="D13">
-        <v>60</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>45740</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
-      </c>
-      <c r="D14">
-        <v>150</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>45747</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>200</v>
-      </c>
-      <c r="D15">
-        <v>175</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>45754</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>200</v>
-      </c>
-      <c r="D16">
-        <v>200</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="K16" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>45761</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
-      </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="K17" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>45768</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>210</v>
-      </c>
-      <c r="D18">
-        <v>200</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="K18" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>45775</v>
-      </c>
-      <c r="B19">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>210</v>
-      </c>
-      <c r="D19">
-        <v>200</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>45782</v>
-      </c>
-      <c r="B20">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>220</v>
-      </c>
-      <c r="D20">
-        <v>220</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>45789</v>
-      </c>
-      <c r="B21">
-        <v>40</v>
-      </c>
-      <c r="C21">
-        <v>200</v>
-      </c>
-      <c r="D21">
-        <v>110</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>45796</v>
-      </c>
-      <c r="B22">
-        <v>55</v>
-      </c>
-      <c r="C22">
-        <v>260</v>
-      </c>
-      <c r="D22">
-        <v>180</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>45803</v>
-      </c>
-      <c r="B23">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>200</v>
-      </c>
-      <c r="D23">
-        <v>100</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="K23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>45810</v>
-      </c>
-      <c r="B24">
-        <v>40</v>
-      </c>
-      <c r="C24">
-        <v>200</v>
-      </c>
-      <c r="D24">
-        <v>180</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="K24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>45817</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>200</v>
-      </c>
-      <c r="D25">
-        <v>135</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="K25" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>45824</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>200</v>
-      </c>
-      <c r="D26">
-        <v>130</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="K26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>45831</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>200</v>
-      </c>
-      <c r="D27">
-        <v>122</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="K27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>45838</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>200</v>
-      </c>
-      <c r="D28">
-        <v>115</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="K28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>45845</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>200</v>
-      </c>
-      <c r="D29">
-        <v>110</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="K29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>45852</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>200</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="K30" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>45859</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>50</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="K31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>45866</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32">
-        <v>50</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="K32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>45873</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>50</v>
-      </c>
-      <c r="D33">
-        <v>50</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="K33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>45880</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>200</v>
-      </c>
-      <c r="D34">
-        <v>100</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="K34" t="s">
-        <v>13</v>
-      </c>
-      <c r="L34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>45887</v>
-      </c>
-      <c r="B35">
-        <v>40</v>
-      </c>
-      <c r="C35">
-        <v>200</v>
-      </c>
-      <c r="D35">
-        <v>80</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="K35" t="s">
-        <v>13</v>
-      </c>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>45894</v>
-      </c>
-      <c r="B36">
-        <v>50</v>
-      </c>
-      <c r="C36">
-        <v>200</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="K36" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>45901</v>
-      </c>
-      <c r="B37">
-        <v>60</v>
-      </c>
-      <c r="C37">
-        <v>250</v>
-      </c>
-      <c r="D37">
-        <v>175</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="K37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>45908</v>
-      </c>
-      <c r="B38">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>150</v>
-      </c>
-      <c r="D38">
-        <v>150</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="K38" t="s">
-        <v>15</v>
-      </c>
-      <c r="L38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>45915</v>
-      </c>
-      <c r="B39">
-        <v>50</v>
-      </c>
-      <c r="C39">
-        <v>200</v>
-      </c>
-      <c r="D39">
-        <v>160</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="K39" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>45922</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>200</v>
-      </c>
-      <c r="D40">
-        <v>120</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="K40" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>45929</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>200</v>
-      </c>
-      <c r="D41">
-        <v>120</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="K41" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>45936</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>200</v>
-      </c>
-      <c r="D42">
-        <v>110</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="K42" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>45943</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>200</v>
-      </c>
-      <c r="D43">
-        <v>100</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="K43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>45950</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>200</v>
-      </c>
-      <c r="D44">
-        <v>100</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="K44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>45957</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>200</v>
-      </c>
-      <c r="D45">
-        <v>100</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="K45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>45964</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>200</v>
-      </c>
-      <c r="D46">
-        <v>100</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="K46" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>45971</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>200</v>
-      </c>
-      <c r="D47">
-        <v>100</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="K47" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>200</v>
-      </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="K48" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>45985</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>200</v>
-      </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="K49" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>45992</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>200</v>
-      </c>
-      <c r="D50">
-        <v>100</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="K50" t="s">
-        <v>17</v>
-      </c>
-      <c r="L50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>45999</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>200</v>
-      </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="K51" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>46006</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>200</v>
-      </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="K52" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>46013</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>200</v>
-      </c>
-      <c r="D53">
-        <v>100</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="K53" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2EA41-FD23-436A-BE8E-FDD21FEF5240}">
-  <dimension ref="A1:L53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
@@ -1826,7 +564,7 @@
     <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -1837,34 +575,34 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1875,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -1884,10 +622,10 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -1907,10 +645,10 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1930,10 +668,10 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1953,10 +691,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1976,10 +714,10 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1999,10 +737,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -2022,10 +760,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -2045,10 +783,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -2068,10 +806,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -2091,10 +829,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -2114,10 +852,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -2137,10 +875,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -2160,10 +898,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="K14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -2183,10 +921,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="K15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -2206,10 +944,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="K16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2229,10 +967,10 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -2252,10 +990,10 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -2275,10 +1013,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2298,10 +1036,10 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="K20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2321,10 +1059,10 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="K21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2344,10 +1082,10 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2367,10 +1105,10 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2390,10 +1128,10 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2413,10 +1151,10 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2436,10 +1174,10 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2459,10 +1197,10 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="K27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2482,10 +1220,10 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2505,10 +1243,10 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="K29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2528,10 +1266,10 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2611,10 +1349,10 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2634,10 +1372,10 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="K35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2657,10 +1395,10 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="K36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -2680,10 +1418,10 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="K37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -2703,10 +1441,10 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="K38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -2726,10 +1464,10 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="K39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2749,10 +1487,10 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="K40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -2772,10 +1510,10 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="K41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -2795,10 +1533,10 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -2818,10 +1556,10 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="K43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -2841,10 +1579,10 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="K44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -2864,10 +1602,10 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="K45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -2887,10 +1625,10 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="K46" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -2910,10 +1648,10 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -2933,10 +1671,10 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="K48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -2956,10 +1694,10 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -2979,10 +1717,10 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3002,10 +1740,10 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="K51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -3025,10 +1763,10 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="K52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3048,10 +1786,10 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="K53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L53" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ATP.xlsx
+++ b/ATP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB80B50-B8A1-4916-929A-CA3BF90EEADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D0837-3787-4BC8-804D-FA84C970D58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
   <si>
     <t>start_date_local</t>
   </si>
@@ -129,13 +129,31 @@
   </si>
   <si>
     <t>ride_distance</t>
+  </si>
+  <si>
+    <t>ice_skate_distance</t>
+  </si>
+  <si>
+    <t>ice_skate_time</t>
+  </si>
+  <si>
+    <t>ice_skate_load</t>
+  </si>
+  <si>
+    <t>trail_run_load</t>
+  </si>
+  <si>
+    <t>trail_run_time</t>
+  </si>
+  <si>
+    <t>trail_run_distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +166,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--font-mono)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,10 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -208,9 +234,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}" name="Tabel4" displayName="Tabel4" ref="A1:L53" totalsRowShown="0">
-  <autoFilter ref="A1:L53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}" name="Tabel4" displayName="Tabel4" ref="A1:R53" totalsRowShown="0">
+  <autoFilter ref="A1:R53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00AC1D7C-F7EA-4AB3-A2C4-F4BCF2A305A7}" name="start_date_local" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9E15352F-434A-4EAC-BA00-F7D6AF3AF2FE}" name="swim_load"/>
     <tableColumn id="3" xr3:uid="{61A6DD26-4464-4D9A-AF2C-DDF6287530BB}" name="ride_load"/>
@@ -221,6 +247,12 @@
     <tableColumn id="12" xr3:uid="{D7559D9A-025E-4694-880D-3D67EF1798C6}" name="swim_distance"/>
     <tableColumn id="11" xr3:uid="{072CC298-5682-4CE5-8227-32206C100A4B}" name="ride_distance"/>
     <tableColumn id="10" xr3:uid="{78DF58AF-0354-4C65-8341-AFA6D16902D8}" name="run_distance"/>
+    <tableColumn id="15" xr3:uid="{04D8ED35-DF0D-4273-9218-B9B6A3058513}" name="ice_skate_load"/>
+    <tableColumn id="13" xr3:uid="{D53B88A0-559F-4D37-9DDD-B5A06BD0F1CD}" name="ice_skate_time"/>
+    <tableColumn id="14" xr3:uid="{6E37499A-99CB-4C03-8A62-9F83FC7181C4}" name="ice_skate_distance"/>
+    <tableColumn id="18" xr3:uid="{BD0A9EFE-6E5B-4E08-8FC6-5E094B664E6F}" name="trail_run_load"/>
+    <tableColumn id="17" xr3:uid="{48CFB21D-56DE-4185-A881-72A2DA564F86}" name="trail_run_time"/>
+    <tableColumn id="16" xr3:uid="{0678601B-DE63-4C50-9A11-2E24FEB406CD}" name="trail_run_distance"/>
     <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{C7D2E79E-99BF-4432-93B5-E2DBC73A5B1D}" name="focus"/>
   </tableColumns>
@@ -545,13 +577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2EA41-FD23-436A-BE8E-FDD21FEF5240}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -563,11 +595,14 @@
     <col min="8" max="8" width="15.36328125" customWidth="1"/>
     <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1796875" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="15.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.1796875" customWidth="1"/>
+    <col min="18" max="18" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,13 +634,31 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>45656</v>
       </c>
@@ -613,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -621,14 +674,20 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="Q2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>45663</v>
       </c>
@@ -639,19 +698,19 @@
         <v>150</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>45670</v>
       </c>
@@ -667,14 +726,14 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
+      <c r="R4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>45677</v>
       </c>
@@ -690,14 +749,14 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="K5" t="s">
+      <c r="Q5" t="s">
         <v>9</v>
       </c>
-      <c r="L5" t="s">
+      <c r="R5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>45684</v>
       </c>
@@ -713,14 +772,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="K6" t="s">
+      <c r="Q6" t="s">
         <v>9</v>
       </c>
-      <c r="L6" t="s">
+      <c r="R6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>45691</v>
       </c>
@@ -736,14 +795,14 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="K7" t="s">
+      <c r="Q7" t="s">
         <v>9</v>
       </c>
-      <c r="L7" t="s">
+      <c r="R7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>45698</v>
       </c>
@@ -759,14 +818,14 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="K8" t="s">
+      <c r="Q8" t="s">
         <v>9</v>
       </c>
-      <c r="L8" t="s">
+      <c r="R8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>45705</v>
       </c>
@@ -782,14 +841,14 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="K9" t="s">
+      <c r="Q9" t="s">
         <v>9</v>
       </c>
-      <c r="L9" t="s">
+      <c r="R9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>45712</v>
       </c>
@@ -805,14 +864,14 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="K10" t="s">
+      <c r="Q10" t="s">
         <v>10</v>
       </c>
-      <c r="L10" t="s">
+      <c r="R10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>45719</v>
       </c>
@@ -828,14 +887,14 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="K11" t="s">
+      <c r="Q11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="s">
+      <c r="R11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>45726</v>
       </c>
@@ -851,14 +910,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="K12" t="s">
+      <c r="Q12" t="s">
         <v>10</v>
       </c>
-      <c r="L12" t="s">
+      <c r="R12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>45733</v>
       </c>
@@ -874,14 +934,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="K13" t="s">
+      <c r="Q13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" t="s">
+      <c r="R13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>45740</v>
       </c>
@@ -897,14 +957,14 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="K14" t="s">
+      <c r="Q14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" t="s">
+      <c r="R14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>45747</v>
       </c>
@@ -920,14 +980,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="K15" t="s">
+      <c r="Q15" t="s">
         <v>10</v>
       </c>
-      <c r="L15" t="s">
+      <c r="R15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>45754</v>
       </c>
@@ -943,14 +1003,14 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="K16" t="s">
+      <c r="Q16" t="s">
         <v>10</v>
       </c>
-      <c r="L16" t="s">
+      <c r="R16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>45761</v>
       </c>
@@ -966,14 +1026,14 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="K17" t="s">
+      <c r="Q17" t="s">
         <v>10</v>
       </c>
-      <c r="L17" t="s">
+      <c r="R17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>45768</v>
       </c>
@@ -989,14 +1049,14 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="K18" t="s">
+      <c r="Q18" t="s">
         <v>10</v>
       </c>
-      <c r="L18" t="s">
+      <c r="R18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>45775</v>
       </c>
@@ -1012,14 +1072,14 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="K19" t="s">
+      <c r="Q19" t="s">
         <v>10</v>
       </c>
-      <c r="L19" t="s">
+      <c r="R19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>45782</v>
       </c>
@@ -1035,14 +1095,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="K20" t="s">
+      <c r="Q20" t="s">
         <v>10</v>
       </c>
-      <c r="L20" t="s">
+      <c r="R20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>45789</v>
       </c>
@@ -1058,14 +1118,14 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="K21" t="s">
+      <c r="Q21" t="s">
         <v>10</v>
       </c>
-      <c r="L21" t="s">
+      <c r="R21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>45796</v>
       </c>
@@ -1081,14 +1141,14 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="K22" t="s">
+      <c r="Q22" t="s">
         <v>11</v>
       </c>
-      <c r="L22" t="s">
+      <c r="R22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>45803</v>
       </c>
@@ -1104,14 +1164,14 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="K23" t="s">
+      <c r="Q23" t="s">
         <v>12</v>
       </c>
-      <c r="L23" t="s">
+      <c r="R23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>45810</v>
       </c>
@@ -1127,14 +1187,14 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="K24" t="s">
+      <c r="Q24" t="s">
         <v>13</v>
       </c>
-      <c r="L24" t="s">
+      <c r="R24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>45817</v>
       </c>
@@ -1150,14 +1210,14 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="Q25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>45824</v>
       </c>
@@ -1173,14 +1233,14 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="K26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="Q26" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>45831</v>
       </c>
@@ -1196,14 +1256,14 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="Q27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>45838</v>
       </c>
@@ -1219,14 +1279,14 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="Q28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>45845</v>
       </c>
@@ -1242,14 +1302,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="Q29" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>45852</v>
       </c>
@@ -1265,14 +1325,14 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="K30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="Q30" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>45859</v>
       </c>
@@ -1288,11 +1348,11 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="K31" t="s">
+      <c r="Q31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>45866</v>
       </c>
@@ -1308,11 +1368,11 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="K32" t="s">
+      <c r="Q32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>45873</v>
       </c>
@@ -1328,11 +1388,11 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="K33" t="s">
+      <c r="Q33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>45880</v>
       </c>
@@ -1348,14 +1408,14 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="K34" t="s">
+      <c r="Q34" t="s">
         <v>10</v>
       </c>
-      <c r="L34" t="s">
+      <c r="R34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>45887</v>
       </c>
@@ -1371,14 +1431,14 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="K35" t="s">
+      <c r="Q35" t="s">
         <v>10</v>
       </c>
-      <c r="L35" t="s">
+      <c r="R35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>45894</v>
       </c>
@@ -1394,14 +1454,14 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="K36" t="s">
+      <c r="Q36" t="s">
         <v>10</v>
       </c>
-      <c r="L36" t="s">
+      <c r="R36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>45901</v>
       </c>
@@ -1417,14 +1477,14 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="K37" t="s">
+      <c r="Q37" t="s">
         <v>11</v>
       </c>
-      <c r="L37" t="s">
+      <c r="R37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>45908</v>
       </c>
@@ -1440,14 +1500,14 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="K38" t="s">
+      <c r="Q38" t="s">
         <v>12</v>
       </c>
-      <c r="L38" t="s">
+      <c r="R38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>45915</v>
       </c>
@@ -1463,14 +1523,14 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="K39" t="s">
+      <c r="Q39" t="s">
         <v>13</v>
       </c>
-      <c r="L39" t="s">
+      <c r="R39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>45922</v>
       </c>
@@ -1486,14 +1546,14 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="K40" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="Q40" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>45929</v>
       </c>
@@ -1509,14 +1569,14 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="K41" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="Q41" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>45936</v>
       </c>
@@ -1532,14 +1592,14 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="K42" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="Q42" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>45943</v>
       </c>
@@ -1555,14 +1615,14 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="K43" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="Q43" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>45950</v>
       </c>
@@ -1578,14 +1638,14 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="K44" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="Q44" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>45957</v>
       </c>
@@ -1601,14 +1661,14 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="K45" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" t="s">
+      <c r="Q45" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>45964</v>
       </c>
@@ -1624,14 +1684,14 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="K46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="Q46" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>45971</v>
       </c>
@@ -1647,14 +1707,14 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="K47" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="Q47" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>45978</v>
       </c>
@@ -1670,14 +1730,14 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="K48" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="Q48" t="s">
+        <v>14</v>
+      </c>
+      <c r="R48" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>45985</v>
       </c>
@@ -1693,14 +1753,14 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="K49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="Q49" t="s">
+        <v>14</v>
+      </c>
+      <c r="R49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>45992</v>
       </c>
@@ -1716,14 +1776,14 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="K50" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="Q50" t="s">
+        <v>14</v>
+      </c>
+      <c r="R50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>45999</v>
       </c>
@@ -1739,14 +1799,14 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="K51" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="Q51" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>46006</v>
       </c>
@@ -1762,14 +1822,14 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="K52" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="Q52" t="s">
+        <v>14</v>
+      </c>
+      <c r="R52" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>46013</v>
       </c>
@@ -1785,18 +1845,19 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="K53" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="Q53" t="s">
+        <v>14</v>
+      </c>
+      <c r="R53" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ATP.xlsx
+++ b/ATP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D0837-3787-4BC8-804D-FA84C970D58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3CF873-EFFA-4C22-98D9-CC7D5F060D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{21F870CB-DA5E-4DA0-BCC2-764A99CA725C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="50">
   <si>
     <t>start_date_local</t>
   </si>
@@ -86,42 +86,6 @@
     <t>focus</t>
   </si>
   <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>endurance</t>
-  </si>
-  <si>
-    <t>technique</t>
-  </si>
-  <si>
-    <t>your raceday!</t>
-  </si>
-  <si>
-    <t>recovery</t>
-  </si>
-  <si>
-    <t>staying strong</t>
-  </si>
-  <si>
-    <t>a lot of training!</t>
-  </si>
-  <si>
-    <t>preparing for race.</t>
-  </si>
-  <si>
-    <t>Christmas...</t>
-  </si>
-  <si>
-    <t>nothing at all.</t>
-  </si>
-  <si>
-    <t>V02-max workouts</t>
-  </si>
-  <si>
-    <t>Treshold workouts</t>
-  </si>
-  <si>
     <t>ride_load</t>
   </si>
   <si>
@@ -147,13 +111,88 @@
   </si>
   <si>
     <t>trail_run_distance</t>
+  </si>
+  <si>
+    <t>Aerobic Endurance</t>
+  </si>
+  <si>
+    <t>Muscular force</t>
+  </si>
+  <si>
+    <t>Speed Skills</t>
+  </si>
+  <si>
+    <t>Muscular Endurance</t>
+  </si>
+  <si>
+    <t>Anaerobice Endurance</t>
+  </si>
+  <si>
+    <t>Sprint Power</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>AeT</t>
+  </si>
+  <si>
+    <t>Amerongse Bergtrail</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wintermarathon Apeldoorn 25km </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>VestingLoop Gorinchem</t>
+  </si>
+  <si>
+    <t>Austerlitz Trail</t>
+  </si>
+  <si>
+    <t>Mas Montangne bergtrail</t>
+  </si>
+  <si>
+    <t>XTERRA BELGIUM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Singelloop Gouda</t>
+  </si>
+  <si>
+    <t>Transhoek</t>
+  </si>
+  <si>
+    <t>GO Triathlon Zierikzee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,11 +205,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Var(--font-mono)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,18 +227,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -216,6 +253,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
@@ -234,27 +280,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}" name="Tabel4" displayName="Tabel4" ref="A1:R53" totalsRowShown="0">
-  <autoFilter ref="A1:R53" xr:uid="{AD2A009C-82F9-4E14-9C3E-F70079EAA2A4}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00AC1D7C-F7EA-4AB3-A2C4-F4BCF2A305A7}" name="start_date_local" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{9E15352F-434A-4EAC-BA00-F7D6AF3AF2FE}" name="swim_load"/>
-    <tableColumn id="3" xr3:uid="{61A6DD26-4464-4D9A-AF2C-DDF6287530BB}" name="ride_load"/>
-    <tableColumn id="4" xr3:uid="{C6968185-0C45-4EE5-B564-BF591DCC7E11}" name="run_load"/>
-    <tableColumn id="9" xr3:uid="{0974CF32-83F7-4688-8E0F-0C87F6D0AEA8}" name="swim_time" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F8D49066-8C3C-4E52-BBDB-81E3575EDB67}" name="ride_time" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{58AFF2A7-F1A9-4872-B633-BB70278F98C0}" name="run_time" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{D7559D9A-025E-4694-880D-3D67EF1798C6}" name="swim_distance"/>
-    <tableColumn id="11" xr3:uid="{072CC298-5682-4CE5-8227-32206C100A4B}" name="ride_distance"/>
-    <tableColumn id="10" xr3:uid="{78DF58AF-0354-4C65-8341-AFA6D16902D8}" name="run_distance"/>
-    <tableColumn id="15" xr3:uid="{04D8ED35-DF0D-4273-9218-B9B6A3058513}" name="ice_skate_load"/>
-    <tableColumn id="13" xr3:uid="{D53B88A0-559F-4D37-9DDD-B5A06BD0F1CD}" name="ice_skate_time"/>
-    <tableColumn id="14" xr3:uid="{6E37499A-99CB-4C03-8A62-9F83FC7181C4}" name="ice_skate_distance"/>
-    <tableColumn id="18" xr3:uid="{BD0A9EFE-6E5B-4E08-8FC6-5E094B664E6F}" name="trail_run_load"/>
-    <tableColumn id="17" xr3:uid="{48CFB21D-56DE-4185-A881-72A2DA564F86}" name="trail_run_time"/>
-    <tableColumn id="16" xr3:uid="{0678601B-DE63-4C50-9A11-2E24FEB406CD}" name="trail_run_distance"/>
-    <tableColumn id="5" xr3:uid="{02B7A3CE-8194-4F7F-8236-25A3207FC851}" name="period" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{C7D2E79E-99BF-4432-93B5-E2DBC73A5B1D}" name="focus"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D9B0143-F705-4068-A4BA-BB22E8B87DA0}" name="Tabel4" displayName="Tabel4" ref="A1:F53" totalsRowShown="0">
+  <autoFilter ref="A1:F53" xr:uid="{3D9B0143-F705-4068-A4BA-BB22E8B87DA0}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EBCC7236-EB84-48D2-B09B-D3AA7AAA28ED}" name="start_date_local" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B112A73E-C210-4907-B75F-C834B2CC7B19}" name="swim_load" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{7281FC37-745C-4ABB-92A9-F6D0EA21E7F9}" name="ride_load" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{25A144A7-D6F2-4D5B-AF12-7A0BA24364FC}" name="run_load"/>
+    <tableColumn id="8" xr3:uid="{9DC2C7C9-4D31-437C-9800-D879B4D10DD6}" name="focus"/>
+    <tableColumn id="5" xr3:uid="{326B2203-A7AE-4347-BF54-E71208EC98E3}" name="period" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DD3F20D-5B35-4B13-824E-BEC100C06607}" name="Tabel44" displayName="Tabel44" ref="G1:AA53" totalsRowShown="0">
+  <autoFilter ref="G1:AA53" xr:uid="{4DD3F20D-5B35-4B13-824E-BEC100C06607}"/>
+  <tableColumns count="21">
+    <tableColumn id="9" xr3:uid="{29F93AAA-B60E-42C4-BBC3-F818A214E6AE}" name="swim_time" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{13555CE6-F00C-477B-984C-A6D50201F6F3}" name="ride_time" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B8CB4BEA-40EF-4C14-BDA8-6A65EB8F9E67}" name="run_time" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{C2A3C46D-2ABD-4E2D-8281-9B22EAEF038A}" name="swim_distance"/>
+    <tableColumn id="11" xr3:uid="{7D514650-FE9E-4B3C-AC57-D3AB115EE11F}" name="ride_distance"/>
+    <tableColumn id="10" xr3:uid="{17D0708D-A7B4-489D-9E8C-9B4F107A2BFD}" name="run_distance"/>
+    <tableColumn id="15" xr3:uid="{7D4F2EF0-643D-4717-A4DE-3A27006CE760}" name="ice_skate_load"/>
+    <tableColumn id="13" xr3:uid="{4A3D2F3C-4361-4786-9FE9-83964BD5A382}" name="ice_skate_time"/>
+    <tableColumn id="14" xr3:uid="{8D394689-0A81-4950-B680-4DAF802D8FB2}" name="ice_skate_distance"/>
+    <tableColumn id="18" xr3:uid="{BB8285F4-AC6C-4028-89BF-15BDFF1AC57F}" name="trail_run_load"/>
+    <tableColumn id="17" xr3:uid="{13B35003-5580-4B65-97CC-8DC3DA4767CB}" name="trail_run_time"/>
+    <tableColumn id="16" xr3:uid="{E5778238-8913-4D7C-B134-8AA619E30BA9}" name="trail_run_distance"/>
+    <tableColumn id="6" xr3:uid="{1B14F71A-F0B4-46C8-80E2-BF6DF8D1E8FD}" name="Aerobic Endurance" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{7DA9EA78-4464-40F1-8789-B1A27F700CA7}" name="Muscular force"/>
+    <tableColumn id="20" xr3:uid="{A8F8694F-7D82-4965-9E87-52AA0700C32E}" name="Speed Skills"/>
+    <tableColumn id="21" xr3:uid="{5EB69B1C-CBE1-4F62-9AFC-71EFC5E13CB7}" name="Muscular Endurance"/>
+    <tableColumn id="22" xr3:uid="{32ED29F2-1AB0-4814-B875-116E4CB35736}" name="Anaerobice Endurance"/>
+    <tableColumn id="23" xr3:uid="{467BBF3E-447F-4673-8D35-F6E4EFC29030}" name="Sprint Power"/>
+    <tableColumn id="24" xr3:uid="{E0FEF891-543A-4991-A823-0793A7BD85E3}" name="Testing" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{9C9AB8B6-0304-47B7-84A3-F8C83F3958EA}" name="race" dataDxfId="0"/>
+    <tableColumn id="26" xr3:uid="{D47B99F4-346F-4C06-8799-88A581E600DA}" name="cat"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -577,32 +641,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C2EA41-FD23-436A-BE8E-FDD21FEF5240}">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11:T13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6:W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.26953125" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="15.81640625" customWidth="1"/>
-    <col min="17" max="17" width="12.1796875" customWidth="1"/>
-    <col min="18" max="18" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="12" width="1.453125" customWidth="1"/>
+    <col min="13" max="18" width="1" customWidth="1"/>
+    <col min="19" max="19" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" customWidth="1"/>
+    <col min="22" max="22" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -610,55 +676,82 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="X1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45656</v>
       </c>
@@ -666,28 +759,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>50</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
       <c r="G2" s="2"/>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45663</v>
       </c>
@@ -695,22 +803,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>150</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="2"/>
-      <c r="Q3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45670</v>
       </c>
@@ -718,22 +847,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
       <c r="G4" s="2"/>
-      <c r="Q4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45677</v>
       </c>
@@ -741,22 +891,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="Q5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45684</v>
       </c>
@@ -764,22 +935,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="Q6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>34</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45691</v>
       </c>
@@ -792,17 +984,38 @@
       <c r="D7">
         <v>80</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="Q7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45698</v>
       </c>
@@ -815,17 +1028,38 @@
       <c r="D8">
         <v>100</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="2"/>
-      <c r="Q8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45705</v>
       </c>
@@ -838,17 +1072,38 @@
       <c r="D9">
         <v>70</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="Q9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45712</v>
       </c>
@@ -861,17 +1116,38 @@
       <c r="D10">
         <v>90</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
       <c r="G10" s="2"/>
-      <c r="Q10" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45719</v>
       </c>
@@ -884,17 +1160,38 @@
       <c r="D11">
         <v>120</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="2"/>
-      <c r="Q11" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="S11" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45726</v>
       </c>
@@ -907,18 +1204,38 @@
       <c r="D12">
         <v>150</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="2"/>
-      <c r="Q12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45733</v>
       </c>
@@ -931,17 +1248,38 @@
       <c r="D13">
         <v>60</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="Q13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="S13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>45740</v>
       </c>
@@ -954,17 +1292,38 @@
       <c r="D14">
         <v>150</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
       <c r="G14" s="2"/>
-      <c r="Q14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>34</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>45747</v>
       </c>
@@ -977,17 +1336,38 @@
       <c r="D15">
         <v>175</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="Q15" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>45754</v>
       </c>
@@ -1000,17 +1380,38 @@
       <c r="D16">
         <v>200</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
       <c r="G16" s="2"/>
-      <c r="Q16" t="s">
-        <v>10</v>
-      </c>
-      <c r="R16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>45761</v>
       </c>
@@ -1023,17 +1424,38 @@
       <c r="D17">
         <v>100</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="Q17" t="s">
-        <v>10</v>
-      </c>
-      <c r="R17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>45768</v>
       </c>
@@ -1046,17 +1468,38 @@
       <c r="D18">
         <v>200</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
       <c r="G18" s="2"/>
-      <c r="Q18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>45775</v>
       </c>
@@ -1069,17 +1512,38 @@
       <c r="D19">
         <v>200</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="Q19" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>45782</v>
       </c>
@@ -1092,17 +1556,38 @@
       <c r="D20">
         <v>220</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
       <c r="G20" s="2"/>
-      <c r="Q20" t="s">
-        <v>10</v>
-      </c>
-      <c r="R20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="S20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>45789</v>
       </c>
@@ -1115,17 +1600,38 @@
       <c r="D21">
         <v>110</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
       <c r="G21" s="2"/>
-      <c r="Q21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="S21" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>45796</v>
       </c>
@@ -1138,17 +1644,38 @@
       <c r="D22">
         <v>180</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
       <c r="G22" s="2"/>
-      <c r="Q22" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="S22" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45803</v>
       </c>
@@ -1161,17 +1688,38 @@
       <c r="D23">
         <v>100</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="Q23" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>45810</v>
       </c>
@@ -1184,17 +1732,38 @@
       <c r="D24">
         <v>180</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="Q24" t="s">
-        <v>13</v>
-      </c>
-      <c r="R24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>34</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45817</v>
       </c>
@@ -1207,17 +1776,38 @@
       <c r="D25">
         <v>135</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
       <c r="G25" s="2"/>
-      <c r="Q25" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>34</v>
+      </c>
+      <c r="U25" t="s">
+        <v>34</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45824</v>
       </c>
@@ -1230,17 +1820,38 @@
       <c r="D26">
         <v>130</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
       <c r="G26" s="2"/>
-      <c r="Q26" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45831</v>
       </c>
@@ -1253,17 +1864,38 @@
       <c r="D27">
         <v>122</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="2"/>
-      <c r="Q27" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45838</v>
       </c>
@@ -1276,17 +1908,38 @@
       <c r="D28">
         <v>115</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
       <c r="G28" s="2"/>
-      <c r="Q28" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45845</v>
       </c>
@@ -1299,17 +1952,38 @@
       <c r="D29">
         <v>110</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
       <c r="G29" s="2"/>
-      <c r="Q29" t="s">
-        <v>14</v>
-      </c>
-      <c r="R29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="S29" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45852</v>
       </c>
@@ -1322,17 +1996,38 @@
       <c r="D30">
         <v>100</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
       <c r="G30" s="2"/>
-      <c r="Q30" t="s">
-        <v>14</v>
-      </c>
-      <c r="R30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="S30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45859</v>
       </c>
@@ -1345,14 +2040,38 @@
       <c r="D31">
         <v>50</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
       <c r="G31" s="2"/>
-      <c r="Q31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="S31" t="s">
+        <v>34</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45866</v>
       </c>
@@ -1365,14 +2084,38 @@
       <c r="D32">
         <v>50</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
       <c r="G32" s="2"/>
-      <c r="Q32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>34</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45873</v>
       </c>
@@ -1385,14 +2128,38 @@
       <c r="D33">
         <v>50</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
       <c r="G33" s="2"/>
-      <c r="Q33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45880</v>
       </c>
@@ -1405,17 +2172,38 @@
       <c r="D34">
         <v>100</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
       <c r="G34" s="2"/>
-      <c r="Q34" t="s">
-        <v>10</v>
-      </c>
-      <c r="R34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" t="s">
+        <v>34</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45887</v>
       </c>
@@ -1428,17 +2216,38 @@
       <c r="D35">
         <v>80</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
       <c r="G35" s="2"/>
-      <c r="Q35" t="s">
-        <v>10</v>
-      </c>
-      <c r="R35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45894</v>
       </c>
@@ -1451,17 +2260,38 @@
       <c r="D36">
         <v>100</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
       <c r="G36" s="2"/>
-      <c r="Q36" t="s">
-        <v>10</v>
-      </c>
-      <c r="R36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45901</v>
       </c>
@@ -1474,17 +2304,38 @@
       <c r="D37">
         <v>175</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
       <c r="G37" s="2"/>
-      <c r="Q37" t="s">
-        <v>11</v>
-      </c>
-      <c r="R37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45908</v>
       </c>
@@ -1497,17 +2348,38 @@
       <c r="D38">
         <v>150</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
       <c r="G38" s="2"/>
-      <c r="Q38" t="s">
-        <v>12</v>
-      </c>
-      <c r="R38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="S38" t="s">
+        <v>34</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45915</v>
       </c>
@@ -1520,17 +2392,38 @@
       <c r="D39">
         <v>160</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
       <c r="G39" s="2"/>
-      <c r="Q39" t="s">
-        <v>13</v>
-      </c>
-      <c r="R39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="S39" t="s">
+        <v>34</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45922</v>
       </c>
@@ -1543,17 +2436,38 @@
       <c r="D40">
         <v>120</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
       <c r="G40" s="2"/>
-      <c r="Q40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="S40" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45929</v>
       </c>
@@ -1566,17 +2480,38 @@
       <c r="D41">
         <v>120</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
       <c r="G41" s="2"/>
-      <c r="Q41" t="s">
-        <v>14</v>
-      </c>
-      <c r="R41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>34</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45936</v>
       </c>
@@ -1589,17 +2524,38 @@
       <c r="D42">
         <v>110</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
       <c r="G42" s="2"/>
-      <c r="Q42" t="s">
-        <v>14</v>
-      </c>
-      <c r="R42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>34</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45943</v>
       </c>
@@ -1612,17 +2568,38 @@
       <c r="D43">
         <v>100</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
       <c r="G43" s="2"/>
-      <c r="Q43" t="s">
-        <v>14</v>
-      </c>
-      <c r="R43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>34</v>
+      </c>
+      <c r="U43" t="s">
+        <v>34</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45950</v>
       </c>
@@ -1635,17 +2612,38 @@
       <c r="D44">
         <v>100</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
       <c r="G44" s="2"/>
-      <c r="Q44" t="s">
-        <v>14</v>
-      </c>
-      <c r="R44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45957</v>
       </c>
@@ -1658,17 +2656,38 @@
       <c r="D45">
         <v>100</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
       <c r="G45" s="2"/>
-      <c r="Q45" t="s">
-        <v>14</v>
-      </c>
-      <c r="R45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45964</v>
       </c>
@@ -1681,17 +2700,38 @@
       <c r="D46">
         <v>100</v>
       </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
       <c r="G46" s="2"/>
-      <c r="Q46" t="s">
-        <v>14</v>
-      </c>
-      <c r="R46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45971</v>
       </c>
@@ -1704,17 +2744,38 @@
       <c r="D47">
         <v>100</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
       <c r="G47" s="2"/>
-      <c r="Q47" t="s">
-        <v>14</v>
-      </c>
-      <c r="R47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="S47" t="s">
+        <v>34</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45978</v>
       </c>
@@ -1727,17 +2788,38 @@
       <c r="D48">
         <v>100</v>
       </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
       <c r="G48" s="2"/>
-      <c r="Q48" t="s">
-        <v>14</v>
-      </c>
-      <c r="R48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="S48" t="s">
+        <v>34</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45985</v>
       </c>
@@ -1750,17 +2832,38 @@
       <c r="D49">
         <v>100</v>
       </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
       <c r="G49" s="2"/>
-      <c r="Q49" t="s">
-        <v>14</v>
-      </c>
-      <c r="R49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="S49" t="s">
+        <v>34</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45992</v>
       </c>
@@ -1773,17 +2876,38 @@
       <c r="D50">
         <v>100</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
       <c r="G50" s="2"/>
-      <c r="Q50" t="s">
-        <v>14</v>
-      </c>
-      <c r="R50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50" t="s">
+        <v>34</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45999</v>
       </c>
@@ -1796,17 +2920,38 @@
       <c r="D51">
         <v>100</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
       <c r="G51" s="2"/>
-      <c r="Q51" t="s">
-        <v>14</v>
-      </c>
-      <c r="R51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>34</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>46006</v>
       </c>
@@ -1819,17 +2964,38 @@
       <c r="D52">
         <v>100</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
       <c r="G52" s="2"/>
-      <c r="Q52" t="s">
-        <v>14</v>
-      </c>
-      <c r="R52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52" t="s">
+        <v>34</v>
+      </c>
+      <c r="U52" t="s">
+        <v>34</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>46013</v>
       </c>
@@ -1842,22 +3008,44 @@
       <c r="D53">
         <v>100</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
       <c r="G53" s="2"/>
-      <c r="Q53" t="s">
-        <v>14</v>
-      </c>
-      <c r="R53" t="s">
-        <v>24</v>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ATP.xlsx
+++ b/ATP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3381D39A-C3C6-4D05-88EC-8E0109DEA916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B63BF-0E46-4A62-9A0A-2292A45C92EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="55">
   <si>
     <t>start_date_local</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Muscular Endurance</t>
   </si>
   <si>
-    <t>Anaerobice Endurance</t>
-  </si>
-  <si>
     <t>Sprint Power</t>
   </si>
   <si>
@@ -186,6 +183,24 @@
   </si>
   <si>
     <t>GO Triathlon Zierikzee</t>
+  </si>
+  <si>
+    <t>mtb_load</t>
+  </si>
+  <si>
+    <t>mtb_time</t>
+  </si>
+  <si>
+    <t>mtb_distance</t>
+  </si>
+  <si>
+    <t>Anaerobic Endurance</t>
+  </si>
+  <si>
+    <t>AeT and FTP</t>
+  </si>
+  <si>
+    <t>AET</t>
   </si>
 </sst>
 </file>
@@ -665,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA53"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,15 +698,13 @@
     <col min="19" max="19" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.26953125" customWidth="1"/>
-    <col min="22" max="22" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.1796875" customWidth="1"/>
+    <col min="22" max="26" width="25.26953125" customWidth="1"/>
+    <col min="27" max="27" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,49 +760,58 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>45656</v>
+        <v>45663</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D2" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -800,18 +822,14 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="P2" s="5">
+        <v>110</v>
+      </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="5">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5">
-        <v>0</v>
-      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
       <c r="V2" s="5">
         <v>0</v>
       </c>
@@ -824,29 +842,38 @@
       <c r="Y2" s="5">
         <v>0</v>
       </c>
-      <c r="Z2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
-        <v>45663</v>
+        <v>45670</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D3" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -857,20 +884,16 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W3" s="2">
         <v>0</v>
@@ -878,32 +901,41 @@
       <c r="X3" s="2">
         <v>0</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="9" t="s">
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
-        <v>45670</v>
+        <v>45677</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -914,20 +946,16 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W4" s="2">
         <v>0</v>
@@ -935,32 +963,41 @@
       <c r="X4" s="2">
         <v>0</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
-        <v>45677</v>
+        <v>45684</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -971,20 +1008,16 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W5" s="2">
         <v>0</v>
@@ -995,29 +1028,38 @@
       <c r="Y5" s="2">
         <v>0</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
-        <v>45684</v>
+        <v>45691</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>100</v>
+        <v>370</v>
       </c>
       <c r="D6" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1028,23 +1070,19 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2">
+        <v>70</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
       <c r="V6" s="2">
         <v>0</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X6" s="2">
         <v>0</v>
@@ -1053,28 +1091,37 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
-        <v>45691</v>
+        <v>45698</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="D7" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1085,20 +1132,16 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W7" s="2">
         <v>0</v>
@@ -1109,29 +1152,38 @@
       <c r="Y7" s="2">
         <v>0</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
-        <v>45698</v>
+        <v>45705</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D8" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1142,20 +1194,16 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
@@ -1166,29 +1214,38 @@
       <c r="Y8" s="2">
         <v>0</v>
       </c>
-      <c r="Z8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1199,18 +1256,14 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
       <c r="V9" s="2">
         <v>0</v>
       </c>
@@ -1223,29 +1276,38 @@
       <c r="Y9" s="2">
         <v>0</v>
       </c>
-      <c r="Z9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
-        <v>45712</v>
+        <v>45719</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="D10" s="2">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1256,53 +1318,58 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
-        <v>45719</v>
+        <v>45726</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D11" s="2">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1313,18 +1380,14 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
       <c r="V11" s="2">
         <v>0</v>
       </c>
@@ -1334,32 +1397,41 @@
       <c r="X11" s="2">
         <v>0</v>
       </c>
-      <c r="Y11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA11" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
-        <v>45726</v>
+        <v>45733</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D12" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1370,20 +1442,16 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W12" s="2">
         <v>0</v>
@@ -1394,29 +1462,38 @@
       <c r="Y12" s="2">
         <v>0</v>
       </c>
-      <c r="Z12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
-        <v>45733</v>
+        <v>45740</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D13" s="2">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1427,23 +1504,19 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
       <c r="V13" s="2">
         <v>0</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X13" s="2">
         <v>0</v>
@@ -1452,28 +1525,37 @@
         <v>0</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
-        <v>45740</v>
+        <v>45747</v>
       </c>
       <c r="B14" s="2">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D14" s="2">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1484,20 +1566,16 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
@@ -1508,29 +1586,38 @@
       <c r="Y14" s="2">
         <v>0</v>
       </c>
-      <c r="Z14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
-        <v>45747</v>
+        <v>45754</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
       </c>
       <c r="C15" s="2">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="D15" s="2">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1541,53 +1628,58 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="2">
+        <v>100</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
       <c r="V15" s="2">
         <v>0</v>
       </c>
       <c r="W15" s="2">
         <v>0</v>
       </c>
-      <c r="X15" s="2">
-        <v>0</v>
+      <c r="X15" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Y15" s="2">
         <v>0</v>
       </c>
-      <c r="Z15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA15" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
-        <v>45754</v>
+        <v>45761</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D16" s="2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1598,20 +1690,16 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W16" s="2">
         <v>0</v>
@@ -1622,29 +1710,38 @@
       <c r="Y16" s="2">
         <v>0</v>
       </c>
-      <c r="Z16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
-        <v>45761</v>
+        <v>45768</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1655,23 +1752,19 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
       <c r="V17" s="2">
         <v>0</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X17" s="2">
         <v>0</v>
@@ -1680,28 +1773,37 @@
         <v>0</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
-        <v>45768</v>
+        <v>45775</v>
       </c>
       <c r="B18" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D18" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1712,53 +1814,58 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="P18" s="2">
+        <v>100</v>
+      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA18" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AC18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
-        <v>45775</v>
+        <v>45782</v>
       </c>
       <c r="B19" s="2">
         <v>40</v>
       </c>
       <c r="C19" s="2">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D19" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1769,23 +1876,19 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2">
-        <v>0</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
       <c r="V19" s="2">
         <v>0</v>
       </c>
-      <c r="W19" s="2" t="s">
-        <v>30</v>
+      <c r="W19" s="2">
+        <v>0</v>
       </c>
       <c r="X19" s="2">
         <v>0</v>
@@ -1794,28 +1897,37 @@
         <v>0</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA19" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
-        <v>45782</v>
+        <v>45789</v>
       </c>
       <c r="B20" s="2">
         <v>40</v>
       </c>
       <c r="C20" s="2">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D20" s="2">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1826,20 +1938,16 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
@@ -1847,32 +1955,41 @@
       <c r="X20" s="2">
         <v>0</v>
       </c>
-      <c r="Y20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA20" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="B21" s="2">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D21" s="2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1883,49 +2000,54 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0</v>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="X21" s="2">
         <v>0</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA21" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="B22" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="D22" s="2">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
@@ -1940,49 +2062,54 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>30</v>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
       </c>
       <c r="X22" s="2">
         <v>0</v>
       </c>
-      <c r="Y22" s="2">
-        <v>0</v>
+      <c r="Y22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA22" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="B23" s="2">
         <v>50</v>
       </c>
       <c r="C23" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D23" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
@@ -1997,18 +2124,14 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="2">
+        <v>100</v>
+      </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
       <c r="V23" s="2">
         <v>0</v>
       </c>
@@ -2021,29 +2144,38 @@
       <c r="Y23" s="2">
         <v>0</v>
       </c>
-      <c r="Z23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA23" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="B24" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D24" s="2">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2054,18 +2186,14 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
       <c r="V24" s="2">
         <v>0</v>
       </c>
@@ -2078,29 +2206,38 @@
       <c r="Y24" s="2">
         <v>0</v>
       </c>
-      <c r="Z24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA24" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D25" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -2111,20 +2248,16 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
       <c r="V25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W25" s="2">
         <v>0</v>
@@ -2132,32 +2265,41 @@
       <c r="X25" s="2">
         <v>0</v>
       </c>
-      <c r="Y25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA25" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D26" s="2">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2168,20 +2310,16 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2">
-        <v>0</v>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W26" s="2">
         <v>0</v>
@@ -2192,29 +2330,38 @@
       <c r="Y26" s="2">
         <v>0</v>
       </c>
-      <c r="Z26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA26" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D27" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2225,20 +2372,16 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T27" s="2">
-        <v>0</v>
-      </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
       <c r="V27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W27" s="2">
         <v>0</v>
@@ -2246,32 +2389,41 @@
       <c r="X27" s="2">
         <v>0</v>
       </c>
-      <c r="Y27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA27" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
-        <v>45838</v>
+        <v>45845</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D28" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2282,20 +2434,16 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T28" s="2">
-        <v>0</v>
-      </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2">
-        <v>0</v>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W28" s="2">
         <v>0</v>
@@ -2306,29 +2454,38 @@
       <c r="Y28" s="2">
         <v>0</v>
       </c>
-      <c r="Z28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA28" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
-        <v>45845</v>
+        <v>45852</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D29" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -2339,20 +2496,16 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0</v>
-      </c>
-      <c r="U29" s="2">
-        <v>0</v>
-      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
       <c r="V29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W29" s="2">
         <v>0</v>
@@ -2360,32 +2513,41 @@
       <c r="X29" s="2">
         <v>0</v>
       </c>
-      <c r="Y29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA29" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD29" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="B30" s="2">
         <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -2396,20 +2558,16 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="2">
-        <v>0</v>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W30" s="2">
         <v>0</v>
@@ -2420,29 +2578,38 @@
       <c r="Y30" s="2">
         <v>0</v>
       </c>
-      <c r="Z30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA30" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
         <v>50</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -2453,18 +2620,14 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2">
-        <v>0</v>
-      </c>
-      <c r="T31" s="2">
-        <v>0</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
       <c r="V31" s="2">
         <v>0</v>
       </c>
@@ -2477,29 +2640,38 @@
       <c r="Y31" s="2">
         <v>0</v>
       </c>
-      <c r="Z31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA31" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD31" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
-        <v>45866</v>
+        <v>45873</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
         <v>50</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -2510,18 +2682,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2">
-        <v>0</v>
-      </c>
-      <c r="T32" s="2">
-        <v>0</v>
-      </c>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
       <c r="V32" s="2">
         <v>0</v>
       </c>
@@ -2534,29 +2702,38 @@
       <c r="Y32" s="2">
         <v>0</v>
       </c>
-      <c r="Z32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA32" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD32" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
-        <v>45873</v>
+        <v>45880</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D33" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -2567,18 +2744,14 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2">
-        <v>0</v>
-      </c>
-      <c r="T33" s="2">
-        <v>0</v>
-      </c>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
       <c r="V33" s="2">
         <v>0</v>
       </c>
@@ -2591,29 +2764,38 @@
       <c r="Y33" s="2">
         <v>0</v>
       </c>
-      <c r="Z33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA33" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD33" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
-        <v>45880</v>
+        <v>45887</v>
       </c>
       <c r="B34" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D34" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -2624,53 +2806,58 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2">
-        <v>0</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U34" s="2">
-        <v>0</v>
-      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
       <c r="V34" s="2">
         <v>0</v>
       </c>
-      <c r="W34" s="2">
-        <v>0</v>
+      <c r="W34" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="X34" s="2">
         <v>0</v>
       </c>
-      <c r="Y34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA34" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD34" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
-        <v>45887</v>
+        <v>45894</v>
       </c>
       <c r="B35" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D35" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -2681,20 +2868,16 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
       <c r="V35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W35" s="2">
         <v>0</v>
@@ -2703,31 +2886,40 @@
         <v>0</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA35" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="B36" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D36" s="2">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -2738,23 +2930,19 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
       <c r="V36" s="2">
         <v>0</v>
       </c>
-      <c r="W36" s="2" t="s">
-        <v>30</v>
+      <c r="W36" s="2">
+        <v>0</v>
       </c>
       <c r="X36" s="2">
         <v>0</v>
@@ -2763,24 +2951,33 @@
         <v>0</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA36" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD36" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="B37" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="D37" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
@@ -2795,49 +2992,54 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>30</v>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2">
+        <v>0</v>
       </c>
       <c r="W37" s="2">
         <v>0</v>
       </c>
-      <c r="X37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="2" t="s">
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AA37" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AD37" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="B38" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="D38" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
@@ -2852,20 +3054,16 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2">
-        <v>0</v>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W38" s="2">
         <v>0</v>
@@ -2876,29 +3074,38 @@
       <c r="Y38" s="2">
         <v>0</v>
       </c>
-      <c r="Z38" s="2" t="s">
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AA38" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AD38" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="B39" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D39" s="2">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2909,18 +3116,14 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
       <c r="V39" s="2">
         <v>0</v>
       </c>
@@ -2933,29 +3136,38 @@
       <c r="Y39" s="2">
         <v>0</v>
       </c>
-      <c r="Z39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA39" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD39" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
-        <v>45922</v>
+        <v>45929</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D40" s="2">
         <v>120</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -2966,20 +3178,16 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0</v>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W40" s="2">
         <v>0</v>
@@ -2990,29 +3198,38 @@
       <c r="Y40" s="2">
         <v>0</v>
       </c>
-      <c r="Z40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA40" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD40" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
-        <v>45929</v>
+        <v>45936</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
       </c>
       <c r="C41" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D41" s="2">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3023,23 +3240,19 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2">
-        <v>0</v>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="X41" s="2">
         <v>0</v>
@@ -3047,29 +3260,38 @@
       <c r="Y41" s="2">
         <v>0</v>
       </c>
-      <c r="Z41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA41" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD41" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
-        <v>45936</v>
+        <v>45943</v>
       </c>
       <c r="B42" s="2">
         <v>0</v>
       </c>
       <c r="C42" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D42" s="2">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3080,20 +3302,16 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
       <c r="V42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W42" s="2">
         <v>0</v>
@@ -3101,32 +3319,41 @@
       <c r="X42" s="2">
         <v>0</v>
       </c>
-      <c r="Y42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA42" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD42" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
-        <v>45943</v>
+        <v>45950</v>
       </c>
       <c r="B43" s="2">
         <v>0</v>
       </c>
       <c r="C43" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D43" s="2">
         <v>100</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -3137,23 +3364,19 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2">
-        <v>0</v>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="X43" s="2">
         <v>0</v>
@@ -3161,29 +3384,38 @@
       <c r="Y43" s="2">
         <v>0</v>
       </c>
-      <c r="Z43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA43" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD43" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="B44" s="2">
         <v>0</v>
       </c>
       <c r="C44" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D44" s="2">
         <v>100</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3194,20 +3426,16 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0</v>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W44" s="2">
         <v>0</v>
@@ -3218,29 +3446,38 @@
       <c r="Y44" s="2">
         <v>0</v>
       </c>
-      <c r="Z44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA44" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD44" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
-        <v>45957</v>
+        <v>45964</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
       </c>
       <c r="C45" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D45" s="2">
         <v>100</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3251,53 +3488,58 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
       <c r="V45" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W45" s="2">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="X45" s="2">
         <v>0</v>
       </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA45" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD45" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
       </c>
       <c r="C46" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D46" s="2">
         <v>100</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -3308,53 +3550,58 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0</v>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W46" s="2">
         <v>0</v>
       </c>
-      <c r="X46" s="2" t="s">
-        <v>30</v>
+      <c r="X46" s="2">
+        <v>0</v>
       </c>
       <c r="Y46" s="2">
         <v>0</v>
       </c>
-      <c r="Z46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA46" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD46" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
-        <v>45971</v>
+        <v>45978</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
       </c>
       <c r="C47" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D47" s="2">
         <v>100</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3365,20 +3612,16 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0</v>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W47" s="2">
         <v>0</v>
@@ -3389,29 +3632,38 @@
       <c r="Y47" s="2">
         <v>0</v>
       </c>
-      <c r="Z47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA47" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD47" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
       </c>
       <c r="C48" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D48" s="2">
         <v>100</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -3422,23 +3674,19 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2">
-        <v>0</v>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="X48" s="2">
         <v>0</v>
@@ -3446,29 +3694,38 @@
       <c r="Y48" s="2">
         <v>0</v>
       </c>
-      <c r="Z48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA48" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD48" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
-        <v>45985</v>
+        <v>45992</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
       </c>
       <c r="C49" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D49" s="2">
         <v>100</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -3479,20 +3736,16 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T49" s="2">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
       <c r="V49" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W49" s="2">
         <v>0</v>
@@ -3500,32 +3753,41 @@
       <c r="X49" s="2">
         <v>0</v>
       </c>
-      <c r="Y49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA49" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD49" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
       </c>
       <c r="C50" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D50" s="2">
         <v>100</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -3536,23 +3798,19 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2">
-        <v>0</v>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="X50" s="2">
         <v>0</v>
@@ -3560,29 +3818,38 @@
       <c r="Y50" s="2">
         <v>0</v>
       </c>
-      <c r="Z50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA50" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD50" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
-        <v>45999</v>
+        <v>46006</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
       </c>
       <c r="C51" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D51" s="2">
         <v>100</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -3593,20 +3860,16 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T51" s="2">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0</v>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="W51" s="2">
         <v>0</v>
@@ -3617,29 +3880,38 @@
       <c r="Y51" s="2">
         <v>0</v>
       </c>
-      <c r="Z51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA51" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD51" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
-        <v>46006</v>
+        <v>46013</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
       </c>
       <c r="C52" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D52" s="2">
         <v>100</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -3650,53 +3922,58 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U52" s="2">
-        <v>0</v>
-      </c>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
       <c r="V52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W52" s="2">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="X52" s="2">
         <v>0</v>
       </c>
-      <c r="Y52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA52" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD52" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="10">
-        <v>46013</v>
+        <v>46020</v>
       </c>
       <c r="B53" s="11">
         <v>0</v>
       </c>
       <c r="C53" s="11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D53" s="11">
         <v>100</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -3707,35 +3984,40 @@
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
+      <c r="P53" s="11">
+        <v>0</v>
+      </c>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
-      <c r="S53" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="T53" s="11">
-        <v>0</v>
-      </c>
-      <c r="U53" s="11">
-        <v>0</v>
-      </c>
-      <c r="V53" s="11">
-        <v>0</v>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="W53" s="11">
         <v>0</v>
       </c>
-      <c r="X53" s="11" t="s">
-        <v>30</v>
+      <c r="X53" s="11">
+        <v>0</v>
       </c>
       <c r="Y53" s="11">
         <v>0</v>
       </c>
-      <c r="Z53" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA53" s="13" t="s">
-        <v>28</v>
+      <c r="Z53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD53" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
